--- a/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>PAYD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,43 +747,49 @@
         <v>2700</v>
       </c>
       <c r="E8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F8" s="3">
         <v>2700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2300</v>
       </c>
       <c r="G8" s="3">
         <v>2700</v>
       </c>
       <c r="H8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J8" s="3">
         <v>2200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,22 +797,22 @@
         <v>2000</v>
       </c>
       <c r="E9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
-        <v>1700</v>
-      </c>
       <c r="G9" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H9" s="3">
         <v>1700</v>
       </c>
       <c r="I9" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="J9" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K9" s="3">
         <v>1800</v>
@@ -808,19 +821,25 @@
         <v>1500</v>
       </c>
       <c r="M9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N9" s="3">
         <v>1500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P9" s="3">
         <v>1200</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,43 +847,49 @@
         <v>700</v>
       </c>
       <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>700</v>
+      </c>
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>500</v>
       </c>
       <c r="J10" s="3">
         <v>500</v>
       </c>
       <c r="K10" s="3">
+        <v>500</v>
+      </c>
+      <c r="L10" s="3">
+        <v>500</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>400</v>
-      </c>
-      <c r="M10" s="3">
-        <v>400</v>
       </c>
       <c r="N10" s="3">
         <v>400</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,37 +1002,43 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>10400</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>10400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1039,26 +1084,32 @@
       <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>100</v>
-      </c>
       <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>13100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-10400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,31 +1243,33 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1217,43 +1284,49 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-10300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
@@ -1261,18 +1334,24 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1280,18 +1359,18 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1304,58 +1383,70 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-10400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-500</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1369,26 +1460,26 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-6400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-10400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-500</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M26" s="3">
         <v>6300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>500</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="G27" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>6400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,14 +1721,14 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>-6300</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>-6300</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,32 +1839,38 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1745,57 +1884,69 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>500</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="G33" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
       <c r="M33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>500</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="G35" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
       <c r="M35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,10 +2149,10 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>600</v>
@@ -1991,28 +2164,34 @@
         <v>600</v>
       </c>
       <c r="J41" s="3">
+        <v>600</v>
+      </c>
+      <c r="K41" s="3">
+        <v>600</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,13 +2234,19 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2079,10 +2264,10 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2091,16 +2276,22 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2164,16 +2361,16 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
@@ -2185,10 +2382,16 @@
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2196,43 +2399,49 @@
         <v>700</v>
       </c>
       <c r="E46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F46" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G46" s="3">
         <v>800</v>
       </c>
       <c r="H46" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="I46" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J46" s="3">
         <v>700</v>
       </c>
       <c r="K46" s="3">
+        <v>900</v>
+      </c>
+      <c r="L46" s="3">
+        <v>700</v>
+      </c>
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2290,10 +2505,10 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2317,54 +2532,66 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F49" s="3">
         <v>4100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>4300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>15100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>15100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>15600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>16200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>16500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>15500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>15700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>15900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E54" s="3">
         <v>5000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G54" s="3">
         <v>5300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>16000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>16100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>16400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>17100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>17400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>16500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>16600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
       </c>
       <c r="J57" s="3">
+        <v>700</v>
+      </c>
+      <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2681,34 +2948,40 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,19 +2989,19 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1300</v>
       </c>
       <c r="J59" s="3">
         <v>1300</v>
@@ -2740,63 +3013,75 @@
         <v>1300</v>
       </c>
       <c r="M59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2100</v>
       </c>
       <c r="I60" s="3">
         <v>2200</v>
       </c>
       <c r="J60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,13 +3124,19 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E62" s="3">
         <v>1200</v>
@@ -2854,37 +3145,43 @@
         <v>1200</v>
       </c>
       <c r="G62" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H62" s="3">
         <v>1200</v>
       </c>
       <c r="I62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J62" s="3">
         <v>1200</v>
       </c>
       <c r="K62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="L62" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="M62" s="3">
         <v>1300</v>
       </c>
       <c r="N62" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="O62" s="3">
         <v>1300</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3500</v>
       </c>
       <c r="J66" s="3">
         <v>3300</v>
       </c>
       <c r="K66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-67500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-66900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-67500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-67300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-67100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-56800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-56400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-56300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-55800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-55900</v>
       </c>
       <c r="M72" s="3">
         <v>-55800</v>
       </c>
       <c r="N72" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="P72" s="3">
         <v>-55600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-55400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-55400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F76" s="3">
         <v>2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>12600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>12700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>13100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>13800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>13000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>13200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>13400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>500</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="G81" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
       <c r="M81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3643,10 +4040,10 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -3667,13 +4064,19 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>200</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4393,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3992,14 +4433,20 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4125,13 +4584,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>300</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,19 +4824,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
@@ -4357,10 +4848,10 @@
         <v>-100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4406,54 +4903,66 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3" t="s">
+      <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>PAYD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,191 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2700</v>
       </c>
       <c r="G8" s="3">
         <v>2700</v>
       </c>
       <c r="H8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I8" s="3">
         <v>2300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1900</v>
       </c>
       <c r="O8" s="3">
         <v>1900</v>
       </c>
       <c r="P8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2000</v>
       </c>
       <c r="G9" s="3">
         <v>2000</v>
       </c>
       <c r="H9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1800</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1500</v>
       </c>
       <c r="O9" s="3">
         <v>1500</v>
       </c>
       <c r="P9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1200</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,22 +857,22 @@
         <v>700</v>
       </c>
       <c r="E10" s="3">
+        <v>700</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>700</v>
       </c>
       <c r="G10" s="3">
         <v>700</v>
       </c>
       <c r="H10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I10" s="3">
         <v>600</v>
       </c>
       <c r="J10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K10" s="3">
         <v>500</v>
@@ -871,10 +881,10 @@
         <v>500</v>
       </c>
       <c r="M10" s="3">
+        <v>500</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>400</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
@@ -883,13 +893,16 @@
         <v>400</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1028,20 +1048,20 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>10400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,11 +1113,11 @@
       <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3">
-        <v>100</v>
+      <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
@@ -1102,14 +1125,17 @@
       <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+      <c r="Q15" s="3">
+        <v>100</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3000</v>
       </c>
       <c r="F17" s="3">
         <v>3000</v>
       </c>
       <c r="G17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2500</v>
       </c>
       <c r="L17" s="3">
         <v>2500</v>
       </c>
       <c r="M17" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N17" s="3">
         <v>2200</v>
       </c>
       <c r="O17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,14 +1288,14 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1269,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1290,71 +1324,77 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1365,14 +1405,14 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1389,49 +1429,52 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
@@ -1440,13 +1483,16 @@
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1466,11 +1512,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1478,11 +1524,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-6400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,43 +1594,46 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
@@ -1590,48 +1642,51 @@
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
@@ -1640,13 +1695,16 @@
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1727,12 +1788,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-6300</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,14 +1924,14 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1869,11 +1939,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1890,48 +1960,51 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
@@ -1940,13 +2013,16 @@
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,43 +2071,46 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
@@ -2040,68 +2119,74 @@
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,13 +2226,14 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E41" s="3">
         <v>500</v>
@@ -2155,7 +2242,7 @@
         <v>500</v>
       </c>
       <c r="G41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>600</v>
@@ -2170,28 +2257,31 @@
         <v>600</v>
       </c>
       <c r="L41" s="3">
+        <v>600</v>
+      </c>
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>600</v>
       </c>
       <c r="O41" s="3">
         <v>600</v>
       </c>
       <c r="P41" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,7 +2342,7 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2270,7 +2363,7 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2282,16 +2375,19 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2367,13 +2466,13 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
@@ -2388,15 +2487,18 @@
         <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E46" s="3">
         <v>700</v>
@@ -2405,43 +2507,46 @@
         <v>700</v>
       </c>
       <c r="G46" s="3">
+        <v>700</v>
+      </c>
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
-      </c>
-      <c r="M46" s="3">
-        <v>800</v>
       </c>
       <c r="N46" s="3">
         <v>800</v>
       </c>
       <c r="O46" s="3">
+        <v>800</v>
+      </c>
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2511,7 +2619,7 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2538,10 +2646,13 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2549,49 +2660,52 @@
         <v>3600</v>
       </c>
       <c r="E49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F49" s="3">
         <v>4000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4300</v>
       </c>
       <c r="I49" s="3">
         <v>4300</v>
       </c>
       <c r="J49" s="3">
-        <v>15100</v>
+        <v>4300</v>
       </c>
       <c r="K49" s="3">
         <v>15100</v>
       </c>
       <c r="L49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="M49" s="3">
         <v>15600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>5000</v>
       </c>
       <c r="F54" s="3">
         <v>5000</v>
       </c>
       <c r="G54" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="H54" s="3">
         <v>5300</v>
       </c>
       <c r="I54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J54" s="3">
         <v>5200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>16500</v>
       </c>
       <c r="P54" s="3">
         <v>16500</v>
       </c>
       <c r="Q54" s="3">
+        <v>16500</v>
+      </c>
+      <c r="R54" s="3">
         <v>16600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
         <v>900</v>
       </c>
       <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
       </c>
       <c r="N57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>700</v>
       </c>
       <c r="P57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q57" s="3">
         <v>600</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2954,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2963,48 +3097,51 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1400</v>
       </c>
       <c r="I59" s="3">
         <v>1400</v>
       </c>
       <c r="J59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K59" s="3">
         <v>1300</v>
@@ -3019,69 +3156,75 @@
         <v>1300</v>
       </c>
       <c r="O59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P59" s="3">
         <v>1400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1200</v>
       </c>
       <c r="Q59" s="3">
         <v>1200</v>
       </c>
       <c r="R59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="3">
         <v>1100</v>
       </c>
       <c r="F60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G60" s="3">
         <v>1200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2300</v>
       </c>
       <c r="H60" s="3">
         <v>2300</v>
       </c>
       <c r="I60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2200</v>
       </c>
       <c r="O60" s="3">
         <v>2200</v>
       </c>
       <c r="P60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="Q60" s="3">
         <v>2000</v>
       </c>
       <c r="R60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3139,7 +3285,7 @@
         <v>1100</v>
       </c>
       <c r="E62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
@@ -3151,10 +3297,10 @@
         <v>1200</v>
       </c>
       <c r="I62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J62" s="3">
         <v>1100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1200</v>
       </c>
       <c r="K62" s="3">
         <v>1200</v>
@@ -3163,13 +3309,13 @@
         <v>1200</v>
       </c>
       <c r="M62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1300</v>
       </c>
       <c r="P62" s="3">
         <v>1300</v>
@@ -3177,11 +3323,14 @@
       <c r="Q62" s="3">
         <v>1300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3500</v>
       </c>
       <c r="H66" s="3">
         <v>3500</v>
       </c>
       <c r="I66" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J66" s="3">
         <v>3300</v>
       </c>
       <c r="K66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3300</v>
       </c>
       <c r="Q66" s="3">
         <v>3300</v>
       </c>
       <c r="R66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-67500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-67000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-66900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-67500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-67300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-67100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-56800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-56400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-56300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-55800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-55900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-55800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-55600</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-55400</v>
       </c>
       <c r="R72" s="3">
         <v>-55400</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-55400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1800</v>
       </c>
       <c r="H76" s="3">
         <v>1800</v>
       </c>
       <c r="I76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J76" s="3">
         <v>1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,98 +4089,104 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
@@ -4000,13 +4195,16 @@
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4046,7 +4245,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4070,13 +4269,16 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4439,14 +4660,17 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4590,13 +4820,16 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4830,16 +5076,16 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
@@ -4854,7 +5100,7 @@
         <v>-100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4909,60 +5158,66 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>PAYD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2700</v>
       </c>
       <c r="H8" s="3">
         <v>2700</v>
       </c>
       <c r="I8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J8" s="3">
         <v>2300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1900</v>
       </c>
       <c r="P8" s="3">
         <v>1900</v>
       </c>
       <c r="Q8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,78 +811,81 @@
         <v>2500</v>
       </c>
       <c r="E9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2000</v>
       </c>
       <c r="H9" s="3">
         <v>2000</v>
       </c>
       <c r="I9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J9" s="3">
         <v>1700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1800</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1500</v>
       </c>
       <c r="P9" s="3">
         <v>1500</v>
       </c>
       <c r="Q9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R9" s="3">
         <v>1200</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E10" s="3">
         <v>700</v>
       </c>
       <c r="F10" s="3">
+        <v>700</v>
+      </c>
+      <c r="G10" s="3">
         <v>600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>700</v>
       </c>
       <c r="H10" s="3">
         <v>700</v>
       </c>
       <c r="I10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J10" s="3">
         <v>600</v>
       </c>
       <c r="K10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L10" s="3">
         <v>500</v>
@@ -884,10 +894,10 @@
         <v>500</v>
       </c>
       <c r="N10" s="3">
+        <v>500</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>400</v>
       </c>
       <c r="P10" s="3">
         <v>400</v>
@@ -896,13 +906,16 @@
         <v>400</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,11 +1059,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1051,20 +1071,20 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>10400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1116,11 +1139,11 @@
       <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="3">
-        <v>100</v>
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
@@ -1128,14 +1151,17 @@
       <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
+      <c r="R15" s="3">
+        <v>100</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3000</v>
       </c>
       <c r="G17" s="3">
         <v>3000</v>
       </c>
       <c r="H17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2500</v>
       </c>
       <c r="M17" s="3">
         <v>2500</v>
       </c>
       <c r="N17" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="O17" s="3">
         <v>2200</v>
       </c>
       <c r="P17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,14 +1325,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1306,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1327,66 +1361,72 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-10300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,8 +1436,8 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1408,14 +1448,14 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1432,52 +1472,55 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
@@ -1486,13 +1529,16 @@
         <v>-200</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1515,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1527,11 +1573,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-6400</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,46 +1646,49 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
@@ -1645,51 +1697,54 @@
         <v>-200</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
@@ -1698,13 +1753,16 @@
         <v>-200</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1791,12 +1852,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-6300</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,14 +1997,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1942,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1963,51 +2033,54 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
@@ -2016,13 +2089,16 @@
         <v>-200</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,46 +2150,49 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
@@ -2122,71 +2201,77 @@
         <v>-200</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,16 +2313,17 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
-      </c>
-      <c r="E41" s="3">
-        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>500</v>
@@ -2245,7 +2332,7 @@
         <v>500</v>
       </c>
       <c r="H41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I41" s="3">
         <v>600</v>
@@ -2260,28 +2347,31 @@
         <v>600</v>
       </c>
       <c r="M41" s="3">
+        <v>600</v>
+      </c>
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>600</v>
       </c>
       <c r="P41" s="3">
         <v>600</v>
       </c>
       <c r="Q41" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="R41" s="3">
         <v>300</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2345,7 +2438,7 @@
         <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2366,7 +2459,7 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2378,16 +2471,19 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2469,13 +2568,13 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
@@ -2490,18 +2589,21 @@
         <v>200</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>700</v>
       </c>
       <c r="F46" s="3">
         <v>700</v>
@@ -2510,43 +2612,46 @@
         <v>700</v>
       </c>
       <c r="H46" s="3">
+        <v>700</v>
+      </c>
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>800</v>
       </c>
       <c r="O46" s="3">
         <v>800</v>
       </c>
       <c r="P46" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2622,7 +2730,7 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2649,10 +2757,13 @@
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2663,49 +2774,52 @@
         <v>3600</v>
       </c>
       <c r="F49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G49" s="3">
         <v>4000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4300</v>
       </c>
       <c r="J49" s="3">
         <v>4300</v>
       </c>
       <c r="K49" s="3">
-        <v>15100</v>
+        <v>4300</v>
       </c>
       <c r="L49" s="3">
         <v>15100</v>
       </c>
       <c r="M49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="N49" s="3">
         <v>15600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>16500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>5000</v>
       </c>
       <c r="G54" s="3">
         <v>5000</v>
       </c>
       <c r="H54" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="I54" s="3">
         <v>5300</v>
       </c>
       <c r="J54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K54" s="3">
         <v>5200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17400</v>
-      </c>
-      <c r="P54" s="3">
-        <v>16500</v>
       </c>
       <c r="Q54" s="3">
         <v>16500</v>
       </c>
       <c r="R54" s="3">
+        <v>16500</v>
+      </c>
+      <c r="S54" s="3">
         <v>16600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
       </c>
       <c r="O57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>700</v>
       </c>
       <c r="Q57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3091,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -3100,25 +3234,28 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3126,25 +3263,25 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1400</v>
       </c>
       <c r="J59" s="3">
         <v>1400</v>
       </c>
       <c r="K59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L59" s="3">
         <v>1300</v>
@@ -3159,72 +3296,78 @@
         <v>1300</v>
       </c>
       <c r="P59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1200</v>
       </c>
       <c r="R59" s="3">
         <v>1200</v>
       </c>
       <c r="S59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1100</v>
       </c>
       <c r="F60" s="3">
         <v>1100</v>
       </c>
       <c r="G60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H60" s="3">
         <v>1200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2300</v>
       </c>
       <c r="I60" s="3">
         <v>2300</v>
       </c>
       <c r="J60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2200</v>
       </c>
       <c r="P60" s="3">
         <v>2200</v>
       </c>
       <c r="Q60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="R60" s="3">
         <v>2000</v>
       </c>
       <c r="S60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,7 +3434,7 @@
         <v>1100</v>
       </c>
       <c r="F62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G62" s="3">
         <v>1200</v>
@@ -3300,10 +3446,10 @@
         <v>1200</v>
       </c>
       <c r="J62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1200</v>
       </c>
       <c r="L62" s="3">
         <v>1200</v>
@@ -3312,13 +3458,13 @@
         <v>1200</v>
       </c>
       <c r="N62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O62" s="3">
         <v>1300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1400</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1300</v>
       </c>
       <c r="Q62" s="3">
         <v>1300</v>
@@ -3326,11 +3472,14 @@
       <c r="R62" s="3">
         <v>1300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3500</v>
       </c>
       <c r="I66" s="3">
         <v>3500</v>
       </c>
       <c r="J66" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="K66" s="3">
         <v>3300</v>
       </c>
       <c r="L66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3300</v>
       </c>
       <c r="R66" s="3">
         <v>3300</v>
       </c>
       <c r="S66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-67500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-67400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-67500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-67000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-66900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-67500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-67300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-67100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-56800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-56400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-56300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-55800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-55900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-55800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-55600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-55400</v>
       </c>
       <c r="S72" s="3">
         <v>-55400</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-55400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1800</v>
       </c>
       <c r="I76" s="3">
         <v>1800</v>
       </c>
       <c r="J76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,104 +4281,110 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
@@ -4198,13 +4393,16 @@
         <v>-200</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4248,7 +4447,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -4272,13 +4471,16 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,8 +4848,8 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4663,14 +4884,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4823,13 +5053,16 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5079,16 +5325,16 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>-100</v>
@@ -5103,7 +5349,7 @@
         <v>-100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5161,14 +5410,17 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5176,48 +5428,51 @@
         <v>400</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>PAYD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F8" s="3">
         <v>3400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2800</v>
       </c>
       <c r="H8" s="3">
         <v>2700</v>
       </c>
       <c r="I8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J8" s="3">
         <v>2700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2300</v>
       </c>
       <c r="K8" s="3">
         <v>2700</v>
       </c>
       <c r="L8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N8" s="3">
         <v>2200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2500</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2200</v>
       </c>
       <c r="H9" s="3">
         <v>2000</v>
       </c>
       <c r="I9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
-        <v>1700</v>
-      </c>
       <c r="K9" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="L9" s="3">
         <v>1700</v>
       </c>
       <c r="M9" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="N9" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="O9" s="3">
         <v>1800</v>
@@ -847,19 +860,25 @@
         <v>1500</v>
       </c>
       <c r="Q9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R9" s="3">
         <v>1500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T9" s="3">
         <v>1200</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,55 +886,61 @@
         <v>900</v>
       </c>
       <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>900</v>
+      </c>
+      <c r="G10" s="3">
         <v>700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>600</v>
       </c>
       <c r="H10" s="3">
         <v>700</v>
       </c>
       <c r="I10" s="3">
+        <v>600</v>
+      </c>
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
+        <v>700</v>
+      </c>
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>500</v>
       </c>
       <c r="N10" s="3">
         <v>500</v>
       </c>
       <c r="O10" s="3">
+        <v>500</v>
+      </c>
+      <c r="P10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
-      </c>
-      <c r="P10" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>400</v>
       </c>
       <c r="R10" s="3">
         <v>400</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,35 +1101,35 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>10400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1142,26 +1187,32 @@
       <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
-        <v>100</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3">
+        <v>100</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>13100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>-2000</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-10400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-500</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1328,28 +1395,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1364,55 +1431,61 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-10300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
         <v>100</v>
       </c>
@@ -1420,13 +1493,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,11 +1518,11 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1451,17 +1530,17 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1475,70 +1554,82 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>-2000</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-10400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-500</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1564,26 +1655,26 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-6400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>-2100</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-10400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-500</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>6300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>-2100</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>500</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="K27" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>6400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,31 +1932,37 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1855,15 +1976,15 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-6300</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2000,29 +2139,29 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2036,69 +2175,81 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>-2100</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>500</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="K33" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>-2100</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>500</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="K35" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,31 +2485,33 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
-      </c>
-      <c r="F41" s="3">
-        <v>500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K41" s="3">
         <v>600</v>
@@ -2350,28 +2523,34 @@
         <v>600</v>
       </c>
       <c r="N41" s="3">
+        <v>600</v>
+      </c>
+      <c r="O41" s="3">
+        <v>600</v>
+      </c>
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2441,10 +2626,10 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2462,10 +2647,10 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2474,16 +2659,22 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2547,7 +2744,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2571,16 +2768,16 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
@@ -2592,66 +2789,78 @@
         <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
+        <v>200</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>700</v>
       </c>
       <c r="H46" s="3">
         <v>700</v>
       </c>
       <c r="I46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J46" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K46" s="3">
         <v>800</v>
       </c>
       <c r="L46" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M46" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N46" s="3">
         <v>700</v>
       </c>
       <c r="O46" s="3">
+        <v>900</v>
+      </c>
+      <c r="P46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,13 +2915,19 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2733,10 +2948,10 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2760,10 +2975,16 @@
         <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2777,49 +2998,55 @@
         <v>3600</v>
       </c>
       <c r="G49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I49" s="3">
         <v>4000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>4100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>4200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>15100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>15100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>15600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>16200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>16500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>15500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>15700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>15900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F54" s="3">
         <v>5400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4500</v>
       </c>
       <c r="G54" s="3">
         <v>5000</v>
       </c>
       <c r="H54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I54" s="3">
         <v>5000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K54" s="3">
         <v>5300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>16000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>16400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>17100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>17400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>16500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>16500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>16600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3401,72 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>700</v>
       </c>
       <c r="M57" s="3">
         <v>800</v>
       </c>
       <c r="N57" s="3">
+        <v>700</v>
+      </c>
+      <c r="O57" s="3">
+        <v>800</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3228,66 +3495,72 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
       <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
       </c>
       <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1300</v>
       </c>
       <c r="N59" s="3">
         <v>1300</v>
@@ -3299,75 +3572,87 @@
         <v>1300</v>
       </c>
       <c r="Q59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2100</v>
       </c>
       <c r="M60" s="3">
         <v>2200</v>
       </c>
       <c r="N60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,25 +3707,31 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F62" s="3">
         <v>1100</v>
       </c>
       <c r="G62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I62" s="3">
         <v>1200</v>
@@ -3449,37 +3740,43 @@
         <v>1200</v>
       </c>
       <c r="K62" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L62" s="3">
         <v>1200</v>
       </c>
       <c r="M62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="N62" s="3">
         <v>1200</v>
       </c>
       <c r="O62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="P62" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q62" s="3">
         <v>1300</v>
       </c>
       <c r="R62" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="S62" s="3">
         <v>1300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3500</v>
       </c>
       <c r="N66" s="3">
         <v>3300</v>
       </c>
       <c r="O66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-67500</v>
+        <v>-69800</v>
       </c>
       <c r="E72" s="3">
-        <v>-67400</v>
+        <v>-69600</v>
       </c>
       <c r="F72" s="3">
         <v>-67500</v>
       </c>
       <c r="G72" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-67500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-67000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-66900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-67500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-67300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-67100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-56800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-56400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-56300</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-55800</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-55900</v>
       </c>
       <c r="Q72" s="3">
         <v>-55800</v>
       </c>
       <c r="R72" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="T72" s="3">
         <v>-55600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-55400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-55400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F76" s="3">
         <v>2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>12700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>13100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>13700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>13800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>13000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>13200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>13400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>-2100</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>500</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="K81" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4450,10 +4847,10 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -4474,13 +4871,19 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>300</v>
+      </c>
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>200</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P89" s="3">
         <v>100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5276,15 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -4851,11 +5292,11 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4887,14 +5328,20 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5056,13 +5515,19 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5328,19 +5819,19 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>-100</v>
@@ -5352,10 +5843,10 @@
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5372,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -5413,14 +5910,20 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,51 +5931,57 @@
         <v>400</v>
       </c>
       <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>PAYD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,220 +665,230 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2700</v>
       </c>
       <c r="K8" s="3">
         <v>2700</v>
       </c>
       <c r="L8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M8" s="3">
         <v>2300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1900</v>
       </c>
       <c r="S8" s="3">
         <v>1900</v>
       </c>
       <c r="T8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E9" s="3">
         <v>2600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2500</v>
       </c>
       <c r="G9" s="3">
         <v>2500</v>
       </c>
       <c r="H9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2000</v>
       </c>
       <c r="K9" s="3">
         <v>2000</v>
       </c>
       <c r="L9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M9" s="3">
         <v>1700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1800</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1500</v>
       </c>
       <c r="S9" s="3">
         <v>1500</v>
       </c>
       <c r="T9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U9" s="3">
         <v>1200</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,34 +896,34 @@
         <v>900</v>
       </c>
       <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
-      </c>
-      <c r="G10" s="3">
-        <v>700</v>
       </c>
       <c r="H10" s="3">
         <v>700</v>
       </c>
       <c r="I10" s="3">
+        <v>700</v>
+      </c>
+      <c r="J10" s="3">
         <v>600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>700</v>
       </c>
       <c r="K10" s="3">
         <v>700</v>
       </c>
       <c r="L10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M10" s="3">
         <v>600</v>
       </c>
       <c r="N10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O10" s="3">
         <v>500</v>
@@ -922,10 +932,10 @@
         <v>500</v>
       </c>
       <c r="Q10" s="3">
+        <v>500</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>400</v>
       </c>
       <c r="S10" s="3">
         <v>400</v>
@@ -934,13 +944,16 @@
         <v>400</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="V10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1107,11 +1127,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1119,20 +1139,20 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>10400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1193,11 +1216,11 @@
       <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R15" s="3">
-        <v>100</v>
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
@@ -1205,14 +1228,17 @@
       <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
+      <c r="U15" s="3">
+        <v>100</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3000</v>
       </c>
       <c r="J17" s="3">
         <v>3000</v>
       </c>
       <c r="K17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2500</v>
       </c>
       <c r="P17" s="3">
         <v>2500</v>
       </c>
       <c r="Q17" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="R17" s="3">
         <v>2200</v>
       </c>
       <c r="S17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T17" s="3">
         <v>2100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1401,14 +1435,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1416,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1437,75 +1471,81 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,8 +1564,8 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1536,14 +1576,14 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1560,61 +1600,64 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
@@ -1623,13 +1666,16 @@
         <v>-200</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1637,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1661,11 +1707,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1673,11 +1719,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-6400</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,55 +1801,58 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
@@ -1809,60 +1861,63 @@
         <v>-200</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
@@ -1871,13 +1926,16 @@
         <v>-200</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1982,12 +2043,12 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-6300</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2145,14 +2215,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2160,11 +2230,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2181,60 +2251,63 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
@@ -2243,13 +2316,16 @@
         <v>-200</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,55 +2386,58 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
@@ -2367,80 +2446,86 @@
         <v>-200</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,25 +2573,26 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
-      </c>
-      <c r="H41" s="3">
-        <v>500</v>
       </c>
       <c r="I41" s="3">
         <v>500</v>
@@ -2514,7 +2601,7 @@
         <v>500</v>
       </c>
       <c r="K41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>600</v>
@@ -2529,28 +2616,31 @@
         <v>600</v>
       </c>
       <c r="P41" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
-      </c>
-      <c r="R41" s="3">
-        <v>600</v>
       </c>
       <c r="S41" s="3">
         <v>600</v>
       </c>
       <c r="T41" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="U41" s="3">
         <v>300</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2632,7 +2725,7 @@
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2653,7 +2746,7 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2665,16 +2758,19 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,20 +2831,23 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
@@ -2774,13 +2873,13 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
       </c>
       <c r="Q45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
@@ -2795,27 +2894,30 @@
         <v>200</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>700</v>
       </c>
       <c r="I46" s="3">
         <v>700</v>
@@ -2824,43 +2926,46 @@
         <v>700</v>
       </c>
       <c r="K46" s="3">
+        <v>700</v>
+      </c>
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>800</v>
       </c>
       <c r="R46" s="3">
         <v>800</v>
       </c>
       <c r="S46" s="3">
+        <v>800</v>
+      </c>
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,7 +3038,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2954,7 +3062,7 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2981,15 +3089,18 @@
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E49" s="3">
         <v>3600</v>
@@ -3004,49 +3115,52 @@
         <v>3600</v>
       </c>
       <c r="I49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J49" s="3">
         <v>4000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4300</v>
       </c>
       <c r="M49" s="3">
         <v>4300</v>
       </c>
       <c r="N49" s="3">
-        <v>15100</v>
+        <v>4300</v>
       </c>
       <c r="O49" s="3">
         <v>15100</v>
       </c>
       <c r="P49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="Q49" s="3">
         <v>15600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>16200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>16500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>15700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>15900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E54" s="3">
         <v>6100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>5000</v>
       </c>
       <c r="J54" s="3">
         <v>5000</v>
       </c>
       <c r="K54" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="L54" s="3">
         <v>5300</v>
       </c>
       <c r="M54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N54" s="3">
         <v>5200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17400</v>
-      </c>
-      <c r="S54" s="3">
-        <v>16500</v>
       </c>
       <c r="T54" s="3">
         <v>16500</v>
       </c>
       <c r="U54" s="3">
+        <v>16500</v>
+      </c>
+      <c r="V54" s="3">
         <v>16600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3415,58 +3546,61 @@
         <v>1500</v>
       </c>
       <c r="F57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>900</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
       </c>
       <c r="J57" s="3">
+        <v>900</v>
+      </c>
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>600</v>
       </c>
       <c r="R57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S57" s="3">
         <v>700</v>
       </c>
       <c r="T57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="U57" s="3">
         <v>600</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3501,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -3510,60 +3644,63 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>200</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
       </c>
       <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1400</v>
       </c>
       <c r="M59" s="3">
         <v>1400</v>
       </c>
       <c r="N59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="O59" s="3">
         <v>1300</v>
@@ -3578,81 +3715,87 @@
         <v>1300</v>
       </c>
       <c r="S59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T59" s="3">
         <v>1400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1200</v>
       </c>
       <c r="U59" s="3">
         <v>1200</v>
       </c>
       <c r="V59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1100</v>
       </c>
       <c r="I60" s="3">
         <v>1100</v>
       </c>
       <c r="J60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2300</v>
       </c>
       <c r="L60" s="3">
         <v>2300</v>
       </c>
       <c r="M60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
-      </c>
-      <c r="R60" s="3">
-        <v>2200</v>
       </c>
       <c r="S60" s="3">
         <v>2200</v>
       </c>
       <c r="T60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="U60" s="3">
         <v>2000</v>
       </c>
       <c r="V60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3725,7 +3871,7 @@
         <v>1000</v>
       </c>
       <c r="F62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G62" s="3">
         <v>1100</v>
@@ -3734,7 +3880,7 @@
         <v>1100</v>
       </c>
       <c r="I62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J62" s="3">
         <v>1200</v>
@@ -3746,10 +3892,10 @@
         <v>1200</v>
       </c>
       <c r="M62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N62" s="3">
         <v>1100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1200</v>
       </c>
       <c r="O62" s="3">
         <v>1200</v>
@@ -3758,13 +3904,13 @@
         <v>1200</v>
       </c>
       <c r="Q62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R62" s="3">
         <v>1300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1400</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1300</v>
       </c>
       <c r="T62" s="3">
         <v>1300</v>
@@ -3772,11 +3918,14 @@
       <c r="U62" s="3">
         <v>1300</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3500</v>
       </c>
       <c r="L66" s="3">
         <v>3500</v>
       </c>
       <c r="M66" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="N66" s="3">
         <v>3300</v>
       </c>
       <c r="O66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P66" s="3">
         <v>3500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3500</v>
-      </c>
-      <c r="T66" s="3">
-        <v>3300</v>
       </c>
       <c r="U66" s="3">
         <v>3300</v>
       </c>
       <c r="V66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4304,61 +4478,64 @@
         <v>-69800</v>
       </c>
       <c r="E72" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-69600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-67500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-67400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-67500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-67000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-66900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-67500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-67300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-67100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-56800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-56400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-56300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-55800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-55900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-55800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-55600</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-55400</v>
       </c>
       <c r="V72" s="3">
         <v>-55400</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-55400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E76" s="3">
         <v>3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1800</v>
       </c>
       <c r="L76" s="3">
         <v>1800</v>
       </c>
       <c r="M76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N76" s="3">
         <v>1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,122 +4856,128 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
@@ -4791,13 +4986,16 @@
         <v>-200</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4853,7 +5052,7 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -4877,13 +5076,16 @@
         <v>200</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,61 +5418,64 @@
         <v>400</v>
       </c>
       <c r="E89" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F89" s="3">
         <v>300</v>
       </c>
       <c r="G89" s="3">
+        <v>300</v>
+      </c>
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,16 +5498,17 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
@@ -5298,8 +5519,8 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5334,14 +5555,17 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5521,13 +5751,16 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>300</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5825,16 +6071,16 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>-100</v>
@@ -5849,7 +6095,7 @@
         <v>-100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5869,10 +6118,10 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5916,14 +6165,17 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5931,57 +6183,60 @@
         <v>400</v>
       </c>
       <c r="E102" s="3">
+        <v>400</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>400</v>
       </c>
       <c r="G102" s="3">
         <v>400</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>PAYD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,278 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="3">
         <v>4000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2700</v>
       </c>
       <c r="L8" s="3">
         <v>2700</v>
       </c>
       <c r="M8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N8" s="3">
         <v>2300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1900</v>
       </c>
       <c r="T8" s="3">
         <v>1900</v>
       </c>
       <c r="U8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
       <c r="W8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E9" s="3">
         <v>3100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2500</v>
       </c>
       <c r="H9" s="3">
         <v>2500</v>
       </c>
       <c r="I9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2000</v>
       </c>
       <c r="L9" s="3">
         <v>2000</v>
       </c>
       <c r="M9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N9" s="3">
         <v>1700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1800</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1500</v>
       </c>
       <c r="T9" s="3">
         <v>1500</v>
       </c>
       <c r="U9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V9" s="3">
         <v>1200</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
         <v>900</v>
       </c>
       <c r="F10" s="3">
+        <v>900</v>
+      </c>
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
-      </c>
-      <c r="H10" s="3">
-        <v>700</v>
       </c>
       <c r="I10" s="3">
         <v>700</v>
       </c>
       <c r="J10" s="3">
+        <v>700</v>
+      </c>
+      <c r="K10" s="3">
         <v>600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>700</v>
       </c>
       <c r="L10" s="3">
         <v>700</v>
       </c>
       <c r="M10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N10" s="3">
         <v>600</v>
       </c>
       <c r="O10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P10" s="3">
         <v>500</v>
@@ -935,10 +945,10 @@
         <v>500</v>
       </c>
       <c r="R10" s="3">
+        <v>500</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>400</v>
       </c>
       <c r="T10" s="3">
         <v>400</v>
@@ -947,13 +957,16 @@
         <v>400</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="W10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1130,11 +1150,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1142,11 +1162,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>10400</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1154,8 +1174,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1219,26 +1242,29 @@
       <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="3">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>100</v>
-      </c>
       <c r="T15" s="3">
         <v>100</v>
       </c>
       <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
+      <c r="V15" s="3">
+        <v>100</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E17" s="3">
         <v>4000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3000</v>
       </c>
       <c r="K17" s="3">
         <v>3000</v>
       </c>
       <c r="L17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2500</v>
       </c>
       <c r="Q17" s="3">
         <v>2500</v>
       </c>
       <c r="R17" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="S17" s="3">
         <v>2200</v>
       </c>
       <c r="T17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U17" s="3">
         <v>2100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
-      </c>
-      <c r="V17" s="3">
-        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1438,14 +1472,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1453,10 +1487,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1474,98 +1508,104 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1579,14 +1619,14 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1603,64 +1643,67 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
@@ -1669,13 +1712,16 @@
         <v>-200</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1686,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1710,11 +1756,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1722,11 +1768,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-6400</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,58 +1853,61 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
@@ -1864,63 +1916,66 @@
         <v>-200</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
@@ -1929,13 +1984,16 @@
         <v>-200</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,8 +2089,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2046,11 +2107,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-6300</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2218,14 +2288,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2233,11 +2303,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2254,63 +2324,66 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
       <c r="S33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
@@ -2319,13 +2392,16 @@
         <v>-200</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,58 +2465,61 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
       <c r="S35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
@@ -2449,83 +2528,89 @@
         <v>-200</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2583,19 +2670,19 @@
         <v>2500</v>
       </c>
       <c r="E41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>500</v>
       </c>
       <c r="J41" s="3">
         <v>500</v>
@@ -2604,7 +2691,7 @@
         <v>500</v>
       </c>
       <c r="L41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M41" s="3">
         <v>600</v>
@@ -2619,28 +2706,31 @@
         <v>600</v>
       </c>
       <c r="Q41" s="3">
+        <v>600</v>
+      </c>
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
-      </c>
-      <c r="S41" s="3">
-        <v>600</v>
       </c>
       <c r="T41" s="3">
         <v>600</v>
       </c>
       <c r="U41" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="V41" s="3">
         <v>300</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2728,7 +2821,7 @@
         <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2749,7 +2842,7 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2761,16 +2854,19 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,23 +2930,26 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
@@ -2876,13 +2975,13 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
       </c>
       <c r="R45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
@@ -2897,30 +2996,33 @@
         <v>200</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>700</v>
       </c>
       <c r="J46" s="3">
         <v>700</v>
@@ -2929,43 +3031,46 @@
         <v>700</v>
       </c>
       <c r="L46" s="3">
+        <v>700</v>
+      </c>
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
-      </c>
-      <c r="R46" s="3">
-        <v>800</v>
       </c>
       <c r="S46" s="3">
         <v>800</v>
       </c>
       <c r="T46" s="3">
+        <v>800</v>
+      </c>
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3041,7 +3149,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -3065,7 +3173,7 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3092,18 +3200,21 @@
         <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E49" s="3">
         <v>3500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3600</v>
       </c>
       <c r="F49" s="3">
         <v>3600</v>
@@ -3118,49 +3229,52 @@
         <v>3600</v>
       </c>
       <c r="J49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K49" s="3">
         <v>4000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4200</v>
-      </c>
-      <c r="M49" s="3">
-        <v>4300</v>
       </c>
       <c r="N49" s="3">
         <v>4300</v>
       </c>
       <c r="O49" s="3">
-        <v>15100</v>
+        <v>4300</v>
       </c>
       <c r="P49" s="3">
         <v>15100</v>
       </c>
       <c r="Q49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="R49" s="3">
         <v>15600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>16200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>16500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>15500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>15700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>15900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>5000</v>
       </c>
       <c r="K54" s="3">
         <v>5000</v>
       </c>
       <c r="L54" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="M54" s="3">
         <v>5300</v>
       </c>
       <c r="N54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O54" s="3">
         <v>5200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>16500</v>
       </c>
       <c r="U54" s="3">
         <v>16500</v>
       </c>
       <c r="V54" s="3">
+        <v>16500</v>
+      </c>
+      <c r="W54" s="3">
         <v>16600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,13 +3664,14 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="E57" s="3">
         <v>1500</v>
@@ -3549,58 +3680,61 @@
         <v>1500</v>
       </c>
       <c r="G57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>900</v>
       </c>
       <c r="J57" s="3">
         <v>900</v>
       </c>
       <c r="K57" s="3">
+        <v>900</v>
+      </c>
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
       </c>
       <c r="S57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T57" s="3">
         <v>700</v>
       </c>
       <c r="U57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="V57" s="3">
         <v>600</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3638,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -3647,63 +3781,66 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1400</v>
       </c>
       <c r="N59" s="3">
         <v>1400</v>
       </c>
       <c r="O59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="P59" s="3">
         <v>1300</v>
@@ -3718,19 +3855,22 @@
         <v>1300</v>
       </c>
       <c r="T59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U59" s="3">
         <v>1400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1200</v>
       </c>
       <c r="V59" s="3">
         <v>1200</v>
       </c>
       <c r="W59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,64 +3878,67 @@
         <v>2100</v>
       </c>
       <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1100</v>
       </c>
       <c r="J60" s="3">
         <v>1100</v>
       </c>
       <c r="K60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L60" s="3">
         <v>1200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2300</v>
       </c>
       <c r="M60" s="3">
         <v>2300</v>
       </c>
       <c r="N60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2200</v>
       </c>
       <c r="T60" s="3">
         <v>2200</v>
       </c>
       <c r="U60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="V60" s="3">
         <v>2000</v>
       </c>
       <c r="W60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3874,7 +4020,7 @@
         <v>1000</v>
       </c>
       <c r="G62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H62" s="3">
         <v>1100</v>
@@ -3883,7 +4029,7 @@
         <v>1100</v>
       </c>
       <c r="J62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K62" s="3">
         <v>1200</v>
@@ -3895,10 +4041,10 @@
         <v>1200</v>
       </c>
       <c r="N62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O62" s="3">
         <v>1100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1200</v>
       </c>
       <c r="P62" s="3">
         <v>1200</v>
@@ -3907,13 +4053,13 @@
         <v>1200</v>
       </c>
       <c r="R62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S62" s="3">
         <v>1300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1400</v>
-      </c>
-      <c r="T62" s="3">
-        <v>1300</v>
       </c>
       <c r="U62" s="3">
         <v>1300</v>
@@ -3921,11 +4067,14 @@
       <c r="V62" s="3">
         <v>1300</v>
       </c>
-      <c r="W62" s="3" t="s">
+      <c r="W62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4128,64 +4286,67 @@
         <v>3100</v>
       </c>
       <c r="E66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3500</v>
       </c>
       <c r="M66" s="3">
         <v>3500</v>
       </c>
       <c r="N66" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="O66" s="3">
         <v>3300</v>
       </c>
       <c r="P66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3500</v>
-      </c>
-      <c r="U66" s="3">
-        <v>3300</v>
       </c>
       <c r="V66" s="3">
         <v>3300</v>
       </c>
       <c r="W66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-69800</v>
+        <v>-70000</v>
       </c>
       <c r="E72" s="3">
         <v>-69800</v>
       </c>
       <c r="F72" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-69600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-67500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-67400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-67500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-67000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-66900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-67500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-67300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-67100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-56800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-56400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-56300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-55800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-55900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-55800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-55600</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-55400</v>
       </c>
       <c r="W72" s="3">
         <v>-55400</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-55400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1800</v>
       </c>
       <c r="M76" s="3">
         <v>1800</v>
       </c>
       <c r="N76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O76" s="3">
         <v>1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,128 +5048,134 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
       <c r="S81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
@@ -4989,13 +5184,16 @@
         <v>-200</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5055,7 +5254,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -5079,13 +5278,16 @@
         <v>200</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>400</v>
       </c>
       <c r="F89" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G89" s="3">
         <v>300</v>
       </c>
       <c r="H89" s="3">
+        <v>300</v>
+      </c>
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>300</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,8 +5731,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -5522,8 +5743,8 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5558,14 +5779,17 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5754,13 +5984,16 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>300</v>
       </c>
-      <c r="W94" s="3" t="s">
+      <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6074,16 +6320,16 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
@@ -6098,7 +6344,7 @@
         <v>-100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -6109,22 +6355,25 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -6168,75 +6417,81 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>400</v>
       </c>
       <c r="F102" s="3">
+        <v>400</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>400</v>
       </c>
       <c r="H102" s="3">
         <v>400</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>PAYD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,290 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E8" s="3">
         <v>3500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2700</v>
       </c>
       <c r="M8" s="3">
         <v>2700</v>
       </c>
       <c r="N8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O8" s="3">
         <v>2300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2100</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1900</v>
       </c>
       <c r="U8" s="3">
         <v>1900</v>
       </c>
       <c r="V8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2800</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2500</v>
       </c>
       <c r="I9" s="3">
         <v>2500</v>
       </c>
       <c r="J9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2000</v>
       </c>
       <c r="M9" s="3">
         <v>2000</v>
       </c>
       <c r="N9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O9" s="3">
         <v>1700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1800</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1500</v>
       </c>
       <c r="U9" s="3">
         <v>1500</v>
       </c>
       <c r="V9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W9" s="3">
         <v>1200</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
-      </c>
-      <c r="E10" s="3">
-        <v>900</v>
       </c>
       <c r="F10" s="3">
         <v>900</v>
       </c>
       <c r="G10" s="3">
+        <v>900</v>
+      </c>
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
-      </c>
-      <c r="I10" s="3">
-        <v>700</v>
       </c>
       <c r="J10" s="3">
         <v>700</v>
       </c>
       <c r="K10" s="3">
+        <v>700</v>
+      </c>
+      <c r="L10" s="3">
         <v>600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>700</v>
       </c>
       <c r="M10" s="3">
         <v>700</v>
       </c>
       <c r="N10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O10" s="3">
         <v>600</v>
       </c>
       <c r="P10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q10" s="3">
         <v>500</v>
@@ -948,10 +957,10 @@
         <v>500</v>
       </c>
       <c r="S10" s="3">
+        <v>500</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
-      </c>
-      <c r="T10" s="3">
-        <v>400</v>
       </c>
       <c r="U10" s="3">
         <v>400</v>
@@ -960,13 +969,16 @@
         <v>400</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1153,11 +1172,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1165,11 +1184,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>10400</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1177,8 +1196,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1245,26 +1267,29 @@
       <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>100</v>
-      </c>
       <c r="U15" s="3">
         <v>100</v>
       </c>
       <c r="V15" s="3">
         <v>100</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
+      <c r="W15" s="3">
+        <v>100</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1311,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3000</v>
       </c>
       <c r="L17" s="3">
         <v>3000</v>
       </c>
       <c r="M17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2500</v>
       </c>
       <c r="R17" s="3">
         <v>2500</v>
       </c>
       <c r="S17" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="T17" s="3">
         <v>2200</v>
       </c>
       <c r="U17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V17" s="3">
         <v>2100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1392,70 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
       </c>
       <c r="V18" s="3">
         <v>-200</v>
       </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1475,14 +1508,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1490,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1511,13 +1544,16 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1561,70 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W21" s="3">
         <v>0</v>
       </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1622,14 +1661,14 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1646,14 +1685,17 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,52 +1703,52 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
@@ -1715,18 +1757,21 @@
         <v>-200</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1735,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1759,11 +1804,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1771,11 +1816,11 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-6400</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,61 +1904,64 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
@@ -1919,66 +1970,69 @@
         <v>-200</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-200</v>
@@ -1987,13 +2041,16 @@
         <v>-200</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,8 +2152,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2110,11 +2170,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-6300</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2291,14 +2360,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2306,11 +2375,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2327,66 +2396,69 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
       <c r="T33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
         <v>-200</v>
@@ -2395,13 +2467,16 @@
         <v>-200</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,61 +2543,64 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
       <c r="T35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
         <v>-200</v>
@@ -2531,86 +2609,92 @@
         <v>-200</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,31 +2746,32 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="E41" s="3">
         <v>2500</v>
       </c>
       <c r="F41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
-      </c>
-      <c r="J41" s="3">
-        <v>500</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
@@ -2694,7 +2780,7 @@
         <v>500</v>
       </c>
       <c r="M41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N41" s="3">
         <v>600</v>
@@ -2709,28 +2795,31 @@
         <v>600</v>
       </c>
       <c r="R41" s="3">
+        <v>600</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
-      </c>
-      <c r="T41" s="3">
-        <v>600</v>
       </c>
       <c r="U41" s="3">
         <v>600</v>
       </c>
       <c r="V41" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="W41" s="3">
         <v>300</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2824,7 +2916,7 @@
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2845,7 +2937,7 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2857,16 +2949,19 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,26 +3028,29 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
@@ -2978,13 +3076,13 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>300</v>
       </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
@@ -2999,33 +3097,36 @@
         <v>200</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>700</v>
       </c>
       <c r="K46" s="3">
         <v>700</v>
@@ -3034,43 +3135,46 @@
         <v>700</v>
       </c>
       <c r="M46" s="3">
+        <v>700</v>
+      </c>
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
-      </c>
-      <c r="S46" s="3">
-        <v>800</v>
       </c>
       <c r="T46" s="3">
         <v>800</v>
       </c>
       <c r="U46" s="3">
+        <v>800</v>
+      </c>
+      <c r="V46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3152,7 +3259,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -3176,7 +3283,7 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3203,21 +3310,24 @@
         <v>100</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E49" s="3">
         <v>3300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3600</v>
       </c>
       <c r="G49" s="3">
         <v>3600</v>
@@ -3232,49 +3342,52 @@
         <v>3600</v>
       </c>
       <c r="K49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L49" s="3">
         <v>4000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4200</v>
-      </c>
-      <c r="N49" s="3">
-        <v>4300</v>
       </c>
       <c r="O49" s="3">
         <v>4300</v>
       </c>
       <c r="P49" s="3">
-        <v>15100</v>
+        <v>4300</v>
       </c>
       <c r="Q49" s="3">
         <v>15100</v>
       </c>
       <c r="R49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="S49" s="3">
         <v>15600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>16200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>16500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>15500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>15700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>15900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>5000</v>
       </c>
       <c r="L54" s="3">
         <v>5000</v>
       </c>
       <c r="M54" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="N54" s="3">
         <v>5300</v>
       </c>
       <c r="O54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P54" s="3">
         <v>5200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17400</v>
-      </c>
-      <c r="U54" s="3">
-        <v>16500</v>
       </c>
       <c r="V54" s="3">
         <v>16500</v>
       </c>
       <c r="W54" s="3">
+        <v>16500</v>
+      </c>
+      <c r="X54" s="3">
         <v>16600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,16 +3794,17 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1500</v>
       </c>
       <c r="F57" s="3">
         <v>1500</v>
@@ -3683,58 +3813,61 @@
         <v>1500</v>
       </c>
       <c r="H57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>900</v>
       </c>
       <c r="K57" s="3">
         <v>900</v>
       </c>
       <c r="L57" s="3">
+        <v>900</v>
+      </c>
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
-      </c>
-      <c r="R57" s="3">
-        <v>600</v>
       </c>
       <c r="S57" s="3">
         <v>600</v>
       </c>
       <c r="T57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="U57" s="3">
         <v>700</v>
       </c>
       <c r="V57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="W57" s="3">
         <v>600</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3775,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -3784,66 +3917,69 @@
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W58" s="3">
         <v>200</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1400</v>
       </c>
       <c r="O59" s="3">
         <v>1400</v>
       </c>
       <c r="P59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="Q59" s="3">
         <v>1300</v>
@@ -3858,87 +3994,93 @@
         <v>1300</v>
       </c>
       <c r="U59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V59" s="3">
         <v>1400</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1200</v>
       </c>
       <c r="W59" s="3">
         <v>1200</v>
       </c>
       <c r="X59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="E60" s="3">
         <v>2100</v>
       </c>
       <c r="F60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1100</v>
       </c>
       <c r="K60" s="3">
         <v>1100</v>
       </c>
       <c r="L60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M60" s="3">
         <v>1200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2300</v>
       </c>
       <c r="N60" s="3">
         <v>2300</v>
       </c>
       <c r="O60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2200</v>
       </c>
       <c r="U60" s="3">
         <v>2200</v>
       </c>
       <c r="V60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="W60" s="3">
         <v>2000</v>
       </c>
       <c r="X60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,13 +4147,16 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
@@ -4023,7 +4168,7 @@
         <v>1000</v>
       </c>
       <c r="H62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I62" s="3">
         <v>1100</v>
@@ -4032,7 +4177,7 @@
         <v>1100</v>
       </c>
       <c r="K62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="L62" s="3">
         <v>1200</v>
@@ -4044,10 +4189,10 @@
         <v>1200</v>
       </c>
       <c r="O62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P62" s="3">
         <v>1100</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1200</v>
       </c>
       <c r="Q62" s="3">
         <v>1200</v>
@@ -4056,13 +4201,13 @@
         <v>1200</v>
       </c>
       <c r="S62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T62" s="3">
         <v>1300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1400</v>
-      </c>
-      <c r="U62" s="3">
-        <v>1300</v>
       </c>
       <c r="V62" s="3">
         <v>1300</v>
@@ -4070,11 +4215,14 @@
       <c r="W62" s="3">
         <v>1300</v>
       </c>
-      <c r="X62" s="3" t="s">
+      <c r="X62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3100</v>
+        <v>3600</v>
       </c>
       <c r="E66" s="3">
         <v>3100</v>
       </c>
       <c r="F66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3500</v>
       </c>
       <c r="N66" s="3">
         <v>3500</v>
       </c>
       <c r="O66" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="P66" s="3">
         <v>3300</v>
       </c>
       <c r="Q66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R66" s="3">
         <v>3500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3500</v>
-      </c>
-      <c r="V66" s="3">
-        <v>3300</v>
       </c>
       <c r="W66" s="3">
         <v>3300</v>
       </c>
       <c r="X66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-69800</v>
       </c>
       <c r="F72" s="3">
         <v>-69800</v>
       </c>
       <c r="G72" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="H72" s="3">
         <v>-69600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-67500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-67400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-67500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-67000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-66900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-67500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-67300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-67100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-56800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-56400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-56300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-55800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-55900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-55800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-55600</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-55400</v>
       </c>
       <c r="X72" s="3">
         <v>-55400</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-55400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E76" s="3">
         <v>3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1800</v>
       </c>
       <c r="N76" s="3">
         <v>1800</v>
       </c>
       <c r="O76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P76" s="3">
         <v>1900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,134 +5239,140 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
       <c r="T81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
         <v>-200</v>
@@ -5187,13 +5381,16 @@
         <v>-200</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5257,7 +5455,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -5281,13 +5479,16 @@
         <v>200</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E89" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>400</v>
       </c>
       <c r="G89" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H89" s="3">
         <v>300</v>
       </c>
       <c r="I89" s="3">
+        <v>300</v>
+      </c>
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>300</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,8 +5954,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -5746,8 +5966,8 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5782,14 +6002,17 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5987,13 +6216,16 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>300</v>
       </c>
-      <c r="X94" s="3" t="s">
+      <c r="Y94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6323,16 +6568,16 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
@@ -6347,7 +6592,7 @@
         <v>-100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -6358,25 +6603,28 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -6420,78 +6668,84 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>8</v>
+      <c r="W101" s="3">
+        <v>0</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>400</v>
       </c>
       <c r="G102" s="3">
+        <v>400</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>400</v>
       </c>
       <c r="I102" s="3">
         <v>400</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,228 +665,242 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F8" s="3">
         <v>3900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4000</v>
       </c>
       <c r="G8" s="3">
         <v>3500</v>
       </c>
       <c r="H8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J8" s="3">
         <v>3600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2800</v>
       </c>
       <c r="M8" s="3">
         <v>2700</v>
       </c>
       <c r="N8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O8" s="3">
         <v>2700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2300</v>
       </c>
       <c r="P8" s="3">
         <v>2700</v>
       </c>
       <c r="Q8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S8" s="3">
         <v>2200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1600</v>
       </c>
-      <c r="X8" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F9" s="3">
         <v>3000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2200</v>
       </c>
       <c r="M9" s="3">
         <v>2000</v>
       </c>
       <c r="N9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
-        <v>1700</v>
-      </c>
       <c r="P9" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="Q9" s="3">
         <v>1700</v>
       </c>
       <c r="R9" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="S9" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T9" s="3">
         <v>1800</v>
@@ -895,24 +909,30 @@
         <v>1500</v>
       </c>
       <c r="V9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W9" s="3">
         <v>1500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y9" s="3">
         <v>1200</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="3">
         <v>800</v>
@@ -921,64 +941,70 @@
         <v>900</v>
       </c>
       <c r="G10" s="3">
+        <v>800</v>
+      </c>
+      <c r="H10" s="3">
         <v>900</v>
-      </c>
-      <c r="H10" s="3">
-        <v>800</v>
       </c>
       <c r="I10" s="3">
         <v>900</v>
       </c>
       <c r="J10" s="3">
+        <v>800</v>
+      </c>
+      <c r="K10" s="3">
+        <v>900</v>
+      </c>
+      <c r="L10" s="3">
         <v>700</v>
-      </c>
-      <c r="K10" s="3">
-        <v>700</v>
-      </c>
-      <c r="L10" s="3">
-        <v>600</v>
       </c>
       <c r="M10" s="3">
         <v>700</v>
       </c>
       <c r="N10" s="3">
+        <v>600</v>
+      </c>
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>500</v>
-      </c>
-      <c r="R10" s="3">
-        <v>500</v>
       </c>
       <c r="S10" s="3">
         <v>500</v>
       </c>
       <c r="T10" s="3">
+        <v>500</v>
+      </c>
+      <c r="U10" s="3">
+        <v>500</v>
+      </c>
+      <c r="V10" s="3">
         <v>300</v>
-      </c>
-      <c r="U10" s="3">
-        <v>400</v>
-      </c>
-      <c r="V10" s="3">
-        <v>400</v>
       </c>
       <c r="W10" s="3">
         <v>400</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Y10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,64 +1180,70 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>10400</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>10400</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1270,26 +1316,32 @@
       <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="3">
+        <v>100</v>
+      </c>
+      <c r="U15" s="3">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>100</v>
-      </c>
-      <c r="V15" s="3">
-        <v>100</v>
-      </c>
       <c r="W15" s="3">
         <v>100</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="X15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="E17" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F17" s="3">
         <v>4000</v>
       </c>
       <c r="G17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I17" s="3">
         <v>3700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>13100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-10400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-500</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1511,28 +1579,28 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1547,70 +1615,76 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
         <v>100</v>
       </c>
@@ -1618,13 +1692,19 @@
         <v>0</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1664,18 +1744,18 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1688,108 +1768,120 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-10400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>-500</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U23" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="V23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>-200</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Y23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1807,26 +1899,26 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-6400</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-10400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-500</v>
       </c>
       <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V26" s="3">
         <v>6300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-200</v>
       </c>
       <c r="W26" s="3">
         <v>-200</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Y26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
-      </c>
       <c r="P27" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>-10500</v>
       </c>
       <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>6400</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-200</v>
       </c>
       <c r="W27" s="3">
         <v>-200</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Y27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,11 +2277,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2173,14 +2295,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>-6300</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>-6300</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2363,28 +2503,28 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2399,84 +2539,96 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
-      </c>
       <c r="P33" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>-10500</v>
       </c>
       <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-200</v>
-      </c>
       <c r="V33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
         <v>-200</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Y33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
-      </c>
       <c r="P35" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>-10500</v>
       </c>
       <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-200</v>
-      </c>
       <c r="V35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
         <v>-200</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Y35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,46 +2919,48 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F41" s="3">
         <v>2800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>500</v>
-      </c>
-      <c r="L41" s="3">
-        <v>500</v>
       </c>
       <c r="M41" s="3">
         <v>500</v>
       </c>
       <c r="N41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P41" s="3">
         <v>600</v>
@@ -2798,28 +2972,34 @@
         <v>600</v>
       </c>
       <c r="S41" s="3">
+        <v>600</v>
+      </c>
+      <c r="T41" s="3">
+        <v>600</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,16 +3069,22 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -2919,10 +3105,10 @@
         <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2940,10 +3126,10 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2952,16 +3138,22 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,32 +3223,38 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
@@ -3079,16 +3277,16 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
-      </c>
-      <c r="U45" s="3">
-        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
@@ -3100,81 +3298,93 @@
         <v>200</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F46" s="3">
         <v>3200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>700</v>
-      </c>
-      <c r="L46" s="3">
-        <v>700</v>
       </c>
       <c r="M46" s="3">
         <v>700</v>
       </c>
       <c r="N46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O46" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="P46" s="3">
         <v>800</v>
       </c>
       <c r="Q46" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="R46" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S46" s="3">
         <v>700</v>
       </c>
       <c r="T46" s="3">
+        <v>900</v>
+      </c>
+      <c r="U46" s="3">
+        <v>700</v>
+      </c>
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3262,10 +3478,10 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -3286,10 +3502,10 @@
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3313,27 +3529,33 @@
         <v>100</v>
       </c>
       <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F49" s="3">
         <v>3200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3600</v>
       </c>
       <c r="I49" s="3">
         <v>3600</v>
@@ -3345,49 +3567,55 @@
         <v>3600</v>
       </c>
       <c r="L49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N49" s="3">
         <v>4000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>15100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>15100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>15600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>16200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>16500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>15500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>15700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>15900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G54" s="3">
         <v>6200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>4500</v>
       </c>
       <c r="L54" s="3">
         <v>5000</v>
       </c>
       <c r="M54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N54" s="3">
         <v>5000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P54" s="3">
         <v>5300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>16000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>16100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>16400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>17100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>17400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>16500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>16500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>16600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,84 +4055,92 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1500</v>
       </c>
       <c r="H57" s="3">
         <v>1500</v>
       </c>
       <c r="I57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>700</v>
       </c>
       <c r="R57" s="3">
         <v>800</v>
       </c>
       <c r="S57" s="3">
+        <v>700</v>
+      </c>
+      <c r="T57" s="3">
+        <v>800</v>
+      </c>
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3911,81 +4179,87 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
-      </c>
-      <c r="U58" s="3">
-        <v>200</v>
-      </c>
-      <c r="V58" s="3">
-        <v>100</v>
       </c>
       <c r="W58" s="3">
         <v>200</v>
       </c>
       <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>500</v>
       </c>
       <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>500</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1300</v>
       </c>
       <c r="S59" s="3">
         <v>1300</v>
@@ -3997,90 +4271,102 @@
         <v>1300</v>
       </c>
       <c r="V59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X59" s="3">
         <v>1400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2100</v>
       </c>
       <c r="R60" s="3">
         <v>2200</v>
       </c>
       <c r="S60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,19 +4436,25 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
-        <v>1000</v>
-      </c>
       <c r="F62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G62" s="3">
         <v>1000</v>
@@ -4171,19 +4463,19 @@
         <v>1000</v>
       </c>
       <c r="I62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K62" s="3">
         <v>1100</v>
       </c>
       <c r="L62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="N62" s="3">
         <v>1200</v>
@@ -4192,37 +4484,43 @@
         <v>1200</v>
       </c>
       <c r="P62" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="Q62" s="3">
         <v>1200</v>
       </c>
       <c r="R62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="S62" s="3">
         <v>1200</v>
       </c>
       <c r="T62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="U62" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="V62" s="3">
         <v>1300</v>
       </c>
       <c r="W62" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="X62" s="3">
         <v>1300</v>
       </c>
-      <c r="Y62" s="3" t="s">
+      <c r="Y62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>3500</v>
       </c>
       <c r="S66" s="3">
         <v>3300</v>
       </c>
       <c r="T66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="V66" s="3">
         <v>3400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +5158,14 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4825,70 +5173,76 @@
         <v>-70300</v>
       </c>
       <c r="E72" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-70000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-69800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-69800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-69600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-67500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-67400</v>
       </c>
       <c r="K72" s="3">
         <v>-67500</v>
       </c>
       <c r="L72" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-67500</v>
+      </c>
+      <c r="N72" s="3">
         <v>-67000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-66900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-67500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-67300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-67100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-56800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-56400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-56300</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-55800</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-55900</v>
       </c>
       <c r="V72" s="3">
         <v>-55800</v>
       </c>
       <c r="W72" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="X72" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-55600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-55400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-55400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,8 +5466,14 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5109,70 +5481,76 @@
         <v>2900</v>
       </c>
       <c r="E76" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F76" s="3">
-        <v>3300</v>
+        <v>2900</v>
       </c>
       <c r="G76" s="3">
         <v>3100</v>
       </c>
       <c r="H76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J76" s="3">
         <v>3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>12600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>12700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>13100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>13700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>13800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>13000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>13200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>13400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
-      </c>
       <c r="P81" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>-10500</v>
       </c>
       <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-200</v>
-      </c>
       <c r="V81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
         <v>-200</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Y81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5458,10 +5856,10 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -5482,13 +5880,19 @@
         <v>200</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5851,70 +6285,76 @@
         <v>400</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>400</v>
       </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>400</v>
+      </c>
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>200</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U89" s="3">
         <v>100</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>100</v>
+      </c>
+      <c r="X89" s="3">
         <v>300</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,16 +6380,18 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5957,11 +6399,11 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -5969,11 +6411,11 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6005,14 +6447,20 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3" t="s">
+      <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6219,13 +6679,19 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>300</v>
       </c>
-      <c r="Y94" s="3" t="s">
+      <c r="AA94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6571,19 +7063,19 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>-100</v>
@@ -6595,10 +7087,10 @@
         <v>-100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -6606,31 +7098,37 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -6671,19 +7169,25 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y101" s="3" t="s">
+      <c r="AA101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6692,60 +7196,66 @@
         <v>400</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>400</v>
-      </c>
-      <c r="H102" s="3">
-        <v>300</v>
       </c>
       <c r="I102" s="3">
         <v>400</v>
       </c>
       <c r="J102" s="3">
+        <v>300</v>
+      </c>
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-100</v>
-      </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>PAYD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,329 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
         <v>4500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2800</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2700</v>
       </c>
       <c r="P8" s="3">
         <v>2700</v>
       </c>
       <c r="Q8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R8" s="3">
         <v>2300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2100</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1900</v>
       </c>
       <c r="X8" s="3">
         <v>1900</v>
       </c>
       <c r="Y8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Z8" s="3">
         <v>1600</v>
       </c>
-      <c r="Z8" s="3">
-        <v>100</v>
-      </c>
       <c r="AA8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E9" s="3">
         <v>3500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2800</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2500</v>
       </c>
       <c r="L9" s="3">
         <v>2500</v>
       </c>
       <c r="M9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2000</v>
       </c>
       <c r="P9" s="3">
         <v>2000</v>
       </c>
       <c r="Q9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R9" s="3">
         <v>1700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1800</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1500</v>
       </c>
       <c r="X9" s="3">
         <v>1500</v>
       </c>
       <c r="Y9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z9" s="3">
         <v>1200</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>900</v>
       </c>
       <c r="I10" s="3">
         <v>900</v>
       </c>
       <c r="J10" s="3">
+        <v>900</v>
+      </c>
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
-      </c>
-      <c r="L10" s="3">
-        <v>700</v>
       </c>
       <c r="M10" s="3">
         <v>700</v>
       </c>
       <c r="N10" s="3">
+        <v>700</v>
+      </c>
+      <c r="O10" s="3">
         <v>600</v>
-      </c>
-      <c r="O10" s="3">
-        <v>700</v>
       </c>
       <c r="P10" s="3">
         <v>700</v>
       </c>
       <c r="Q10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R10" s="3">
         <v>600</v>
       </c>
       <c r="S10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T10" s="3">
         <v>500</v>
@@ -986,10 +996,10 @@
         <v>500</v>
       </c>
       <c r="V10" s="3">
+        <v>500</v>
+      </c>
+      <c r="W10" s="3">
         <v>300</v>
-      </c>
-      <c r="W10" s="3">
-        <v>400</v>
       </c>
       <c r="X10" s="3">
         <v>400</v>
@@ -998,13 +1008,16 @@
         <v>400</v>
       </c>
       <c r="Z10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AA10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1232,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1221,11 +1241,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1233,11 +1253,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>10400</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1245,8 +1265,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1322,26 +1345,29 @@
       <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="3">
+        <v>100</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>100</v>
-      </c>
       <c r="X15" s="3">
         <v>100</v>
       </c>
       <c r="Y15" s="3">
         <v>100</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>8</v>
+      <c r="Z15" s="3">
+        <v>100</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,93 +1392,97 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>3000</v>
       </c>
       <c r="O17" s="3">
         <v>3000</v>
       </c>
       <c r="P17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
-      </c>
-      <c r="T17" s="3">
-        <v>2500</v>
       </c>
       <c r="U17" s="3">
         <v>2500</v>
       </c>
       <c r="V17" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="W17" s="3">
         <v>2200</v>
       </c>
       <c r="X17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>2100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1800</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>200</v>
       </c>
       <c r="AA17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1461,67 +1491,70 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
-        <v>-100</v>
-      </c>
       <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-300</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-200</v>
       </c>
       <c r="Y18" s="3">
         <v>-200</v>
       </c>
       <c r="Z18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1585,14 +1619,14 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1600,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1621,22 +1655,25 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
@@ -1644,67 +1681,70 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-10300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
-        <v>100</v>
-      </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z21" s="3">
         <v>0</v>
       </c>
       <c r="AA21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1750,14 +1790,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1774,23 +1814,26 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
@@ -1798,52 +1841,52 @@
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
       <c r="W23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="3">
         <v>-200</v>
@@ -1852,13 +1895,16 @@
         <v>-200</v>
       </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AA23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1866,14 +1912,14 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1881,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1905,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1917,11 +1963,11 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-6400</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,70 +2060,73 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6300</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-200</v>
       </c>
       <c r="X26" s="3">
         <v>-200</v>
@@ -2083,75 +2135,78 @@
         <v>-200</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AA26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6400</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-200</v>
       </c>
       <c r="X27" s="3">
         <v>-200</v>
@@ -2160,13 +2215,16 @@
         <v>-200</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AA27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,8 +2344,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2301,11 +2362,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-6300</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2509,14 +2579,14 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2524,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2545,75 +2615,78 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
-        <v>100</v>
-      </c>
       <c r="W33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="X33" s="3">
         <v>-200</v>
@@ -2622,13 +2695,16 @@
         <v>-200</v>
       </c>
       <c r="Z33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AA33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,70 +2780,73 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
-        <v>100</v>
-      </c>
       <c r="W35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="X35" s="3">
         <v>-200</v>
@@ -2776,95 +2855,101 @@
         <v>-200</v>
       </c>
       <c r="Z35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AA35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,40 +3007,41 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2500</v>
       </c>
       <c r="H41" s="3">
         <v>2500</v>
       </c>
       <c r="I41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
-      </c>
-      <c r="M41" s="3">
-        <v>500</v>
       </c>
       <c r="N41" s="3">
         <v>500</v>
@@ -2963,7 +3050,7 @@
         <v>500</v>
       </c>
       <c r="P41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q41" s="3">
         <v>600</v>
@@ -2978,28 +3065,31 @@
         <v>600</v>
       </c>
       <c r="U41" s="3">
+        <v>600</v>
+      </c>
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
-      </c>
-      <c r="W41" s="3">
-        <v>600</v>
       </c>
       <c r="X41" s="3">
         <v>600</v>
       </c>
       <c r="Y41" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Z41" s="3">
         <v>300</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3087,7 +3180,7 @@
         <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -3111,7 +3204,7 @@
         <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -3132,7 +3225,7 @@
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -3144,16 +3237,19 @@
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3241,23 +3340,23 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
@@ -3283,13 +3382,13 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>300</v>
       </c>
       <c r="V45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W45" s="3">
         <v>200</v>
@@ -3304,42 +3403,45 @@
         <v>200</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E46" s="3">
         <v>3600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>700</v>
       </c>
       <c r="N46" s="3">
         <v>700</v>
@@ -3348,43 +3450,46 @@
         <v>700</v>
       </c>
       <c r="P46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
-      </c>
-      <c r="V46" s="3">
-        <v>800</v>
       </c>
       <c r="W46" s="3">
         <v>800</v>
       </c>
       <c r="X46" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3484,7 +3592,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -3508,7 +3616,7 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3535,30 +3643,33 @@
         <v>100</v>
       </c>
       <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E49" s="3">
         <v>3000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3600</v>
       </c>
       <c r="J49" s="3">
         <v>3600</v>
@@ -3573,49 +3684,52 @@
         <v>3600</v>
       </c>
       <c r="N49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O49" s="3">
         <v>4000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>4300</v>
       </c>
       <c r="R49" s="3">
         <v>4300</v>
       </c>
       <c r="S49" s="3">
-        <v>15100</v>
+        <v>4300</v>
       </c>
       <c r="T49" s="3">
         <v>15100</v>
       </c>
       <c r="U49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="V49" s="3">
         <v>15600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>16200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>16500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>15500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>15700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>15900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6600</v>
-      </c>
-      <c r="E54" s="3">
-        <v>6500</v>
       </c>
       <c r="F54" s="3">
         <v>6500</v>
       </c>
       <c r="G54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H54" s="3">
         <v>6200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>5000</v>
       </c>
       <c r="O54" s="3">
         <v>5000</v>
       </c>
       <c r="P54" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="Q54" s="3">
         <v>5300</v>
       </c>
       <c r="R54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S54" s="3">
         <v>5200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17400</v>
-      </c>
-      <c r="X54" s="3">
-        <v>16500</v>
       </c>
       <c r="Y54" s="3">
         <v>16500</v>
       </c>
       <c r="Z54" s="3">
+        <v>16500</v>
+      </c>
+      <c r="AA54" s="3">
         <v>16600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,25 +4187,26 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1500</v>
       </c>
       <c r="I57" s="3">
         <v>1500</v>
@@ -4084,66 +4215,69 @@
         <v>1500</v>
       </c>
       <c r="K57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>900</v>
       </c>
       <c r="N57" s="3">
         <v>900</v>
       </c>
       <c r="O57" s="3">
+        <v>900</v>
+      </c>
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
-      </c>
-      <c r="U57" s="3">
-        <v>600</v>
       </c>
       <c r="V57" s="3">
         <v>600</v>
       </c>
       <c r="W57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="X57" s="3">
         <v>700</v>
       </c>
       <c r="Y57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Z57" s="3">
         <v>600</v>
       </c>
       <c r="AA57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4185,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
@@ -4194,75 +4328,78 @@
         <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W58" s="3">
         <v>200</v>
       </c>
       <c r="X58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z58" s="3">
         <v>200</v>
       </c>
       <c r="AA58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
       </c>
       <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1400</v>
       </c>
       <c r="R59" s="3">
         <v>1400</v>
       </c>
       <c r="S59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T59" s="3">
         <v>1300</v>
@@ -4277,96 +4414,102 @@
         <v>1300</v>
       </c>
       <c r="X59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1400</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>1200</v>
       </c>
       <c r="Z59" s="3">
         <v>1200</v>
       </c>
       <c r="AA59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2100</v>
       </c>
       <c r="H60" s="3">
         <v>2100</v>
       </c>
       <c r="I60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1100</v>
       </c>
       <c r="N60" s="3">
         <v>1100</v>
       </c>
       <c r="O60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P60" s="3">
         <v>1200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2300</v>
       </c>
       <c r="Q60" s="3">
         <v>2300</v>
       </c>
       <c r="R60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2100</v>
-      </c>
-      <c r="W60" s="3">
-        <v>2200</v>
       </c>
       <c r="X60" s="3">
         <v>2200</v>
       </c>
       <c r="Y60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="Z60" s="3">
         <v>2000</v>
       </c>
       <c r="AA60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,13 +4597,13 @@
         <v>800</v>
       </c>
       <c r="E62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F62" s="3">
         <v>900</v>
       </c>
       <c r="G62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H62" s="3">
         <v>1000</v>
@@ -4469,7 +4615,7 @@
         <v>1000</v>
       </c>
       <c r="K62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="L62" s="3">
         <v>1100</v>
@@ -4478,7 +4624,7 @@
         <v>1100</v>
       </c>
       <c r="N62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O62" s="3">
         <v>1200</v>
@@ -4490,10 +4636,10 @@
         <v>1200</v>
       </c>
       <c r="R62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S62" s="3">
         <v>1100</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1200</v>
       </c>
       <c r="T62" s="3">
         <v>1200</v>
@@ -4502,13 +4648,13 @@
         <v>1200</v>
       </c>
       <c r="V62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W62" s="3">
         <v>1300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1400</v>
-      </c>
-      <c r="X62" s="3">
-        <v>1300</v>
       </c>
       <c r="Y62" s="3">
         <v>1300</v>
@@ -4516,11 +4662,14 @@
       <c r="Z62" s="3">
         <v>1300</v>
       </c>
-      <c r="AA62" s="3" t="s">
+      <c r="AA62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3600</v>
       </c>
       <c r="F66" s="3">
         <v>3600</v>
       </c>
       <c r="G66" s="3">
-        <v>3100</v>
+        <v>3600</v>
       </c>
       <c r="H66" s="3">
         <v>3100</v>
       </c>
       <c r="I66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3500</v>
       </c>
       <c r="Q66" s="3">
         <v>3500</v>
       </c>
       <c r="R66" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="S66" s="3">
         <v>3300</v>
       </c>
       <c r="T66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U66" s="3">
         <v>3500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3500</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>3300</v>
       </c>
       <c r="Z66" s="3">
         <v>3300</v>
       </c>
       <c r="AA66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="AB66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-70400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-70300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-70000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-69800</v>
       </c>
       <c r="I72" s="3">
         <v>-69800</v>
       </c>
       <c r="J72" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-69600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-67500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-67400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-67500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-67000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-66900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-67500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-67300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-67100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-56800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-56400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-56300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-55800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-55900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-55800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-55600</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-55400</v>
       </c>
       <c r="AA72" s="3">
         <v>-55400</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-55400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,13 +5655,16 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="E76" s="3">
         <v>2900</v>
@@ -5487,70 +5673,73 @@
         <v>2900</v>
       </c>
       <c r="G76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H76" s="3">
         <v>3100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>1800</v>
       </c>
       <c r="Q76" s="3">
         <v>1800</v>
       </c>
       <c r="R76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S76" s="3">
         <v>1900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,152 +5815,158 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
-        <v>100</v>
-      </c>
       <c r="W81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="X81" s="3">
         <v>-200</v>
@@ -5780,13 +5975,16 @@
         <v>-200</v>
       </c>
       <c r="Z81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AA81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5862,7 +6061,7 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
@@ -5886,13 +6085,16 @@
         <v>200</v>
       </c>
       <c r="Z83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>400</v>
       </c>
       <c r="J89" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K89" s="3">
         <v>300</v>
       </c>
       <c r="L89" s="3">
+        <v>300</v>
+      </c>
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
-        <v>-100</v>
-      </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>300</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6393,8 +6614,8 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6405,8 +6626,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -6417,8 +6638,8 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6453,14 +6674,17 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>8</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6685,13 +6915,16 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>300</v>
       </c>
-      <c r="AA94" s="3" t="s">
+      <c r="AB94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7069,16 +7315,16 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>-100</v>
@@ -7093,7 +7339,7 @@
         <v>-100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
@@ -7104,34 +7350,37 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -7175,87 +7424,93 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>8</v>
+      <c r="Z101" s="3">
+        <v>0</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>400</v>
       </c>
       <c r="J102" s="3">
+        <v>400</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>400</v>
       </c>
       <c r="L102" s="3">
         <v>400</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>PAYD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,271 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4000</v>
       </c>
       <c r="J8" s="3">
         <v>3500</v>
       </c>
       <c r="K8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M8" s="3">
         <v>3600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2800</v>
       </c>
       <c r="P8" s="3">
         <v>2700</v>
       </c>
       <c r="Q8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R8" s="3">
         <v>2700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2300</v>
       </c>
       <c r="S8" s="3">
         <v>2700</v>
       </c>
       <c r="T8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V8" s="3">
         <v>2200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1600</v>
       </c>
-      <c r="AA8" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F9" s="3">
         <v>3200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2500</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2200</v>
       </c>
       <c r="P9" s="3">
         <v>2000</v>
       </c>
       <c r="Q9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R9" s="3">
         <v>2000</v>
       </c>
-      <c r="R9" s="3">
-        <v>1700</v>
-      </c>
       <c r="S9" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="T9" s="3">
         <v>1700</v>
       </c>
       <c r="U9" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="V9" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="W9" s="3">
         <v>1800</v>
@@ -925,33 +938,39 @@
         <v>1500</v>
       </c>
       <c r="Y9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z9" s="3">
         <v>1500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB9" s="3">
         <v>1200</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
         <v>1000</v>
       </c>
       <c r="F10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G10" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H10" s="3">
         <v>800</v>
@@ -960,64 +979,70 @@
         <v>900</v>
       </c>
       <c r="J10" s="3">
+        <v>800</v>
+      </c>
+      <c r="K10" s="3">
         <v>900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>800</v>
       </c>
       <c r="L10" s="3">
         <v>900</v>
       </c>
       <c r="M10" s="3">
+        <v>800</v>
+      </c>
+      <c r="N10" s="3">
+        <v>900</v>
+      </c>
+      <c r="O10" s="3">
         <v>700</v>
-      </c>
-      <c r="N10" s="3">
-        <v>700</v>
-      </c>
-      <c r="O10" s="3">
-        <v>600</v>
       </c>
       <c r="P10" s="3">
         <v>700</v>
       </c>
       <c r="Q10" s="3">
+        <v>600</v>
+      </c>
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
+        <v>700</v>
+      </c>
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
-      </c>
-      <c r="T10" s="3">
-        <v>500</v>
-      </c>
-      <c r="U10" s="3">
-        <v>500</v>
       </c>
       <c r="V10" s="3">
         <v>500</v>
       </c>
       <c r="W10" s="3">
+        <v>500</v>
+      </c>
+      <c r="X10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y10" s="3">
         <v>300</v>
-      </c>
-      <c r="X10" s="3">
-        <v>400</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>400</v>
       </c>
       <c r="Z10" s="3">
         <v>400</v>
       </c>
       <c r="AA10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AB10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1235,44 +1274,44 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>10400</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>10400</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1348,26 +1393,32 @@
       <c r="V15" s="3">
         <v>100</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="W15" s="3">
+        <v>100</v>
+      </c>
+      <c r="X15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>100</v>
-      </c>
       <c r="Z15" s="3">
         <v>100</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AA15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AD15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3600</v>
       </c>
       <c r="I17" s="3">
         <v>4000</v>
       </c>
       <c r="J17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>13100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-100</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-10400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
       </c>
       <c r="V18" s="3">
         <v>-500</v>
       </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,16 +1648,18 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1622,28 +1689,28 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1658,79 +1725,85 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>100</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-10300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
-        <v>100</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
         <v>100</v>
       </c>
@@ -1738,13 +1811,19 @@
         <v>0</v>
       </c>
       <c r="AA21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1793,18 +1872,18 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
@@ -1817,126 +1896,138 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-10400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-200</v>
       </c>
       <c r="V23" s="3">
         <v>-500</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X23" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="Y23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Z23" s="3">
         <v>-200</v>
       </c>
       <c r="AA23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AB23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1954,26 +2045,26 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-6400</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-10400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-200</v>
       </c>
       <c r="V26" s="3">
         <v>-500</v>
       </c>
       <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y26" s="3">
         <v>6300</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-200</v>
       </c>
       <c r="Z26" s="3">
         <v>-200</v>
       </c>
       <c r="AA26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AB26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-300</v>
-      </c>
       <c r="S27" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-300</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>-10500</v>
       </c>
       <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>6400</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-200</v>
       </c>
       <c r="Z27" s="3">
         <v>-200</v>
       </c>
       <c r="AA27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AB27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,11 +2468,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2365,14 +2486,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>-6300</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
+      <c r="Y29" s="3">
+        <v>-6300</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,16 +2676,22 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2582,28 +2721,28 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2618,93 +2757,105 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-300</v>
-      </c>
       <c r="S33" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-300</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>-10500</v>
       </c>
       <c r="V33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
-        <v>100</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="Z33" s="3">
         <v>-200</v>
       </c>
       <c r="AA33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AB33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-300</v>
-      </c>
       <c r="S35" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-300</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>-10500</v>
       </c>
       <c r="V35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
-        <v>100</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="Z35" s="3">
         <v>-200</v>
       </c>
       <c r="AA35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AB35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,55 +3179,57 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>500</v>
       </c>
       <c r="P41" s="3">
         <v>500</v>
       </c>
       <c r="Q41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S41" s="3">
         <v>600</v>
@@ -3068,28 +3241,34 @@
         <v>600</v>
       </c>
       <c r="V41" s="3">
+        <v>600</v>
+      </c>
+      <c r="W41" s="3">
+        <v>600</v>
+      </c>
+      <c r="X41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>300</v>
       </c>
-      <c r="AB41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,25 +3347,31 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
@@ -3207,10 +3392,10 @@
         <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -3228,10 +3413,10 @@
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3240,16 +3425,22 @@
         <v>0</v>
       </c>
       <c r="Z43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
       <c r="AB43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3337,32 +3534,32 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
@@ -3385,16 +3582,16 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
-      </c>
-      <c r="W45" s="3">
-        <v>200</v>
-      </c>
-      <c r="X45" s="3">
-        <v>200</v>
       </c>
       <c r="Y45" s="3">
         <v>200</v>
@@ -3406,90 +3603,102 @@
         <v>200</v>
       </c>
       <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F46" s="3">
         <v>3500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>700</v>
-      </c>
-      <c r="O46" s="3">
-        <v>700</v>
       </c>
       <c r="P46" s="3">
         <v>700</v>
       </c>
       <c r="Q46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R46" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="S46" s="3">
         <v>800</v>
       </c>
       <c r="T46" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="U46" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="V46" s="3">
         <v>700</v>
       </c>
       <c r="W46" s="3">
+        <v>900</v>
+      </c>
+      <c r="X46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y46" s="3">
         <v>800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,16 +3777,22 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -3595,10 +3810,10 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -3619,10 +3834,10 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3646,36 +3861,42 @@
         <v>100</v>
       </c>
       <c r="AB48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E49" s="3">
         <v>2700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G49" s="3">
         <v>3000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K49" s="3">
-        <v>3600</v>
       </c>
       <c r="L49" s="3">
         <v>3600</v>
@@ -3687,49 +3908,55 @@
         <v>3600</v>
       </c>
       <c r="O49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q49" s="3">
         <v>4000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>4200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>4300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>4300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>15100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>15100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>15600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>16200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>16500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>15500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>15700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>15900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F54" s="3">
         <v>6200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>5000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>4500</v>
       </c>
       <c r="O54" s="3">
         <v>5000</v>
       </c>
       <c r="P54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q54" s="3">
         <v>5000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S54" s="3">
         <v>5300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>16000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>16100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>16400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>17100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>17400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>16500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>16500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>16600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,96 +4447,104 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1500</v>
       </c>
       <c r="K57" s="3">
         <v>1500</v>
       </c>
       <c r="L57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
-      </c>
-      <c r="S57" s="3">
-        <v>800</v>
-      </c>
-      <c r="T57" s="3">
-        <v>700</v>
       </c>
       <c r="U57" s="3">
         <v>800</v>
       </c>
       <c r="V57" s="3">
+        <v>700</v>
+      </c>
+      <c r="W57" s="3">
+        <v>800</v>
+      </c>
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>600</v>
       </c>
-      <c r="AB57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4322,90 +4589,96 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
       </c>
       <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
         <v>200</v>
-      </c>
-      <c r="X58" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>100</v>
       </c>
       <c r="Z58" s="3">
         <v>200</v>
       </c>
       <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB58" s="3">
         <v>200</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
       </c>
       <c r="F59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>500</v>
       </c>
       <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
+        <v>500</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1300</v>
       </c>
       <c r="V59" s="3">
         <v>1300</v>
@@ -4417,99 +4690,111 @@
         <v>1300</v>
       </c>
       <c r="Y59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="E60" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="F60" s="3">
         <v>2800</v>
       </c>
       <c r="G60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2100</v>
       </c>
       <c r="U60" s="3">
         <v>2200</v>
       </c>
       <c r="V60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X60" s="3">
         <v>2000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>2000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>2000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,28 +4873,34 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1000</v>
       </c>
       <c r="J62" s="3">
         <v>1000</v>
@@ -4618,19 +4909,19 @@
         <v>1000</v>
       </c>
       <c r="L62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N62" s="3">
         <v>1100</v>
       </c>
       <c r="O62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="P62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Q62" s="3">
         <v>1200</v>
@@ -4639,37 +4930,43 @@
         <v>1200</v>
       </c>
       <c r="S62" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T62" s="3">
         <v>1200</v>
       </c>
       <c r="U62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="V62" s="3">
         <v>1200</v>
       </c>
       <c r="W62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="X62" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Y62" s="3">
         <v>1300</v>
       </c>
       <c r="Z62" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="AA62" s="3">
         <v>1300</v>
       </c>
-      <c r="AB62" s="3" t="s">
+      <c r="AB62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AD62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="E66" s="3">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="F66" s="3">
         <v>3600</v>
       </c>
       <c r="G66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>3300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>3500</v>
       </c>
       <c r="V66" s="3">
         <v>3300</v>
       </c>
       <c r="W66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="X66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Y66" s="3">
         <v>3400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>3300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>3300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,16 +5679,22 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-70400</v>
+        <v>70000</v>
       </c>
       <c r="E72" s="3">
-        <v>-70300</v>
+        <v>-69700</v>
       </c>
       <c r="F72" s="3">
         <v>-70400</v>
@@ -5356,70 +5703,76 @@
         <v>-70300</v>
       </c>
       <c r="H72" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-70000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-69800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-69800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-69600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-67500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-67400</v>
       </c>
       <c r="N72" s="3">
         <v>-67500</v>
       </c>
       <c r="O72" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-67500</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-67000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-66900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-67500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-67300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-67100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-56800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-56400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-56300</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-55800</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-55900</v>
       </c>
       <c r="Y72" s="3">
         <v>-55800</v>
       </c>
       <c r="Z72" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-55600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-55400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-55400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F76" s="3">
         <v>2600</v>
-      </c>
-      <c r="E76" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>2900</v>
       </c>
       <c r="G76" s="3">
         <v>2900</v>
       </c>
       <c r="H76" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="I76" s="3">
-        <v>3300</v>
+        <v>2900</v>
       </c>
       <c r="J76" s="3">
         <v>3100</v>
       </c>
       <c r="K76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M76" s="3">
         <v>3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>12600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>12700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>13100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>13700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>13800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>13000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>13200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>13400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-300</v>
-      </c>
       <c r="S81" s="3">
-        <v>-10500</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-300</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>-10500</v>
       </c>
       <c r="V81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
-        <v>100</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="Z81" s="3">
         <v>-200</v>
       </c>
       <c r="AA81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AB81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6064,10 +6461,10 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
@@ -6088,13 +6485,19 @@
         <v>200</v>
       </c>
       <c r="AA83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6502,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -6511,70 +6944,76 @@
         <v>400</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>400</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>400</v>
+      </c>
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
-      </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>200</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X89" s="3">
         <v>100</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>300</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,19 +7042,21 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6629,11 +7070,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -6641,11 +7082,11 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6677,14 +7118,20 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB91" s="3" t="s">
+      <c r="AD91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,16 +7296,22 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6918,13 +7377,19 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>300</v>
       </c>
-      <c r="AB94" s="3" t="s">
+      <c r="AD94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,16 +7758,22 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -7318,19 +7809,19 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>-100</v>
@@ -7342,10 +7833,10 @@
         <v>-100</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
@@ -7353,40 +7844,46 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -7427,28 +7924,34 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-      <c r="AA101" s="3" t="s">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB101" s="3" t="s">
+      <c r="AD101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>400</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -7457,60 +7960,66 @@
         <v>400</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>400</v>
-      </c>
-      <c r="K102" s="3">
-        <v>300</v>
       </c>
       <c r="L102" s="3">
         <v>400</v>
       </c>
       <c r="M102" s="3">
+        <v>300</v>
+      </c>
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
-      <c r="V102" s="3">
-        <v>-100</v>
-      </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>PAYD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,357 +665,367 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2800</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2700</v>
       </c>
       <c r="S8" s="3">
         <v>2700</v>
       </c>
       <c r="T8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U8" s="3">
         <v>2300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2100</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>1900</v>
       </c>
       <c r="AA8" s="3">
         <v>1900</v>
       </c>
       <c r="AB8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AC8" s="3">
         <v>1600</v>
       </c>
-      <c r="AC8" s="3">
-        <v>100</v>
-      </c>
       <c r="AD8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E9" s="3">
         <v>3000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2800</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2500</v>
       </c>
       <c r="O9" s="3">
         <v>2500</v>
       </c>
       <c r="P9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2200</v>
-      </c>
-      <c r="R9" s="3">
-        <v>2000</v>
       </c>
       <c r="S9" s="3">
         <v>2000</v>
       </c>
       <c r="T9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U9" s="3">
         <v>1700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1800</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>1500</v>
       </c>
       <c r="AA9" s="3">
         <v>1500</v>
       </c>
       <c r="AB9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC9" s="3">
         <v>1200</v>
       </c>
-      <c r="AC9" s="3">
-        <v>0</v>
-      </c>
       <c r="AD9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
-      </c>
-      <c r="K10" s="3">
-        <v>900</v>
       </c>
       <c r="L10" s="3">
         <v>900</v>
       </c>
       <c r="M10" s="3">
+        <v>900</v>
+      </c>
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>900</v>
-      </c>
-      <c r="O10" s="3">
-        <v>700</v>
       </c>
       <c r="P10" s="3">
         <v>700</v>
       </c>
       <c r="Q10" s="3">
+        <v>700</v>
+      </c>
+      <c r="R10" s="3">
         <v>600</v>
-      </c>
-      <c r="R10" s="3">
-        <v>700</v>
       </c>
       <c r="S10" s="3">
         <v>700</v>
       </c>
       <c r="T10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="U10" s="3">
         <v>600</v>
       </c>
       <c r="V10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W10" s="3">
         <v>500</v>
@@ -1024,10 +1034,10 @@
         <v>500</v>
       </c>
       <c r="Y10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z10" s="3">
         <v>300</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>400</v>
       </c>
       <c r="AA10" s="3">
         <v>400</v>
@@ -1036,13 +1046,16 @@
         <v>400</v>
       </c>
       <c r="AC10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AD10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1280,8 +1300,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1289,11 +1309,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1301,11 +1321,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>10400</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1313,8 +1333,8 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1399,26 +1422,29 @@
       <c r="X15" s="3">
         <v>100</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Y15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="3">
-        <v>100</v>
-      </c>
       <c r="AA15" s="3">
         <v>100</v>
       </c>
       <c r="AB15" s="3">
         <v>100</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>8</v>
+      <c r="AC15" s="3">
+        <v>100</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,111 +1472,115 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>4200</v>
       </c>
       <c r="E17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>3000</v>
       </c>
       <c r="R17" s="3">
         <v>3000</v>
       </c>
       <c r="S17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2700</v>
-      </c>
-      <c r="W17" s="3">
-        <v>2500</v>
       </c>
       <c r="X17" s="3">
         <v>2500</v>
       </c>
       <c r="Y17" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="Z17" s="3">
         <v>2200</v>
       </c>
       <c r="AA17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AB17" s="3">
         <v>2100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1800</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>200</v>
       </c>
       <c r="AD17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1559,67 +1589,70 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-300</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-200</v>
       </c>
       <c r="AB18" s="3">
         <v>-200</v>
       </c>
       <c r="AC18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AD18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,19 +1683,20 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1695,14 +1729,14 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1710,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1731,31 +1765,34 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
@@ -1763,67 +1800,70 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
       <c r="T21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-10300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
-        <v>100</v>
-      </c>
       <c r="Z21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC21" s="3">
         <v>0</v>
       </c>
       <c r="AD21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1878,14 +1918,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1902,32 +1942,35 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-      <c r="AC22" s="3" t="s">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
@@ -1935,52 +1978,52 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-10400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="AA23" s="3">
         <v>-200</v>
@@ -1989,13 +2032,16 @@
         <v>-200</v>
       </c>
       <c r="AC23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AD23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2003,23 +2049,23 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -2027,10 +2073,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -2051,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -2063,11 +2109,11 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,79 +2215,82 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-10400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>6300</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-200</v>
       </c>
       <c r="AA26" s="3">
         <v>-200</v>
@@ -2247,84 +2299,87 @@
         <v>-200</v>
       </c>
       <c r="AC26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AD26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-10500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
       <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>6400</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-200</v>
       </c>
       <c r="AA27" s="3">
         <v>-200</v>
@@ -2333,13 +2388,16 @@
         <v>-200</v>
       </c>
       <c r="AC27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AD27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,8 +2535,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2492,11 +2553,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-6300</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,19 +2749,22 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2727,14 +2797,14 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2742,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2763,84 +2833,87 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-10500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
       <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
-        <v>100</v>
-      </c>
       <c r="Z33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AA33" s="3">
         <v>-200</v>
@@ -2849,13 +2922,16 @@
         <v>-200</v>
       </c>
       <c r="AC33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AD33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,79 +3016,82 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-10500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
       <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
-        <v>100</v>
-      </c>
       <c r="Z35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AA35" s="3">
         <v>-200</v>
@@ -3021,104 +3100,110 @@
         <v>-200</v>
       </c>
       <c r="AC35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AD35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,49 +3267,50 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E41" s="3">
         <v>1800</v>
       </c>
       <c r="F41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2500</v>
       </c>
       <c r="K41" s="3">
         <v>2500</v>
       </c>
       <c r="L41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
-      </c>
-      <c r="P41" s="3">
-        <v>500</v>
       </c>
       <c r="Q41" s="3">
         <v>500</v>
@@ -3232,7 +3319,7 @@
         <v>500</v>
       </c>
       <c r="S41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T41" s="3">
         <v>600</v>
@@ -3247,28 +3334,31 @@
         <v>600</v>
       </c>
       <c r="X41" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>500</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>600</v>
       </c>
       <c r="AA41" s="3">
         <v>600</v>
       </c>
       <c r="AB41" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AC41" s="3">
         <v>300</v>
       </c>
       <c r="AD41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,19 +3443,22 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
@@ -3374,7 +3467,7 @@
         <v>300</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
@@ -3398,7 +3491,7 @@
         <v>200</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -3419,7 +3512,7 @@
         <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3431,16 +3524,19 @@
         <v>0</v>
       </c>
       <c r="AB43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3534,11 +3633,11 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
@@ -3546,23 +3645,23 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
@@ -3588,13 +3687,13 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>300</v>
       </c>
       <c r="Y45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z45" s="3">
         <v>200</v>
@@ -3609,51 +3708,54 @@
         <v>200</v>
       </c>
       <c r="AD45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>700</v>
       </c>
       <c r="Q46" s="3">
         <v>700</v>
@@ -3662,43 +3764,46 @@
         <v>700</v>
       </c>
       <c r="S46" s="3">
+        <v>700</v>
+      </c>
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>700</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>800</v>
       </c>
       <c r="Z46" s="3">
         <v>800</v>
       </c>
       <c r="AA46" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB46" s="3">
         <v>900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3795,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3816,7 +3924,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -3840,7 +3948,7 @@
         <v>200</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
@@ -3867,10 +3975,13 @@
         <v>100</v>
       </c>
       <c r="AD48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3878,28 +3989,28 @@
         <v>2600</v>
       </c>
       <c r="E49" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F49" s="3">
         <v>2700</v>
       </c>
       <c r="G49" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H49" s="3">
         <v>3000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>3600</v>
       </c>
       <c r="M49" s="3">
         <v>3600</v>
@@ -3914,49 +4025,52 @@
         <v>3600</v>
       </c>
       <c r="Q49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R49" s="3">
         <v>4000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4200</v>
-      </c>
-      <c r="T49" s="3">
-        <v>4300</v>
       </c>
       <c r="U49" s="3">
         <v>4300</v>
       </c>
       <c r="V49" s="3">
-        <v>15100</v>
+        <v>4300</v>
       </c>
       <c r="W49" s="3">
         <v>15100</v>
       </c>
       <c r="X49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="Y49" s="3">
         <v>15600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>16200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>16500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>15500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>15700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>15900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="E54" s="3">
         <v>6400</v>
       </c>
       <c r="F54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G54" s="3">
         <v>6200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>6500</v>
       </c>
       <c r="I54" s="3">
         <v>6500</v>
       </c>
       <c r="J54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K54" s="3">
         <v>6200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>5000</v>
       </c>
       <c r="R54" s="3">
         <v>5000</v>
       </c>
       <c r="S54" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="T54" s="3">
         <v>5300</v>
       </c>
       <c r="U54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="V54" s="3">
         <v>5200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>16000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>16100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>16400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>17100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>17400</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>16500</v>
       </c>
       <c r="AB54" s="3">
         <v>16500</v>
       </c>
       <c r="AC54" s="3">
+        <v>16500</v>
+      </c>
+      <c r="AD54" s="3">
         <v>16600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4461,22 +4592,22 @@
         <v>1600</v>
       </c>
       <c r="F57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1500</v>
       </c>
       <c r="L57" s="3">
         <v>1500</v>
@@ -4485,58 +4616,61 @@
         <v>1500</v>
       </c>
       <c r="N57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>900</v>
       </c>
       <c r="Q57" s="3">
         <v>900</v>
       </c>
       <c r="R57" s="3">
+        <v>900</v>
+      </c>
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
-      </c>
-      <c r="X57" s="3">
-        <v>600</v>
       </c>
       <c r="Y57" s="3">
         <v>600</v>
       </c>
       <c r="Z57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AA57" s="3">
         <v>700</v>
       </c>
       <c r="AB57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AC57" s="3">
         <v>600</v>
       </c>
       <c r="AD57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4595,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>100</v>
@@ -4604,25 +4738,28 @@
         <v>100</v>
       </c>
       <c r="Y58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z58" s="3">
         <v>200</v>
       </c>
       <c r="AA58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC58" s="3">
         <v>200</v>
       </c>
       <c r="AD58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4630,58 +4767,58 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1400</v>
       </c>
       <c r="U59" s="3">
         <v>1400</v>
       </c>
       <c r="V59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="W59" s="3">
         <v>1300</v>
@@ -4696,19 +4833,22 @@
         <v>1300</v>
       </c>
       <c r="AA59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AB59" s="3">
         <v>1400</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>1200</v>
       </c>
       <c r="AC59" s="3">
         <v>1200</v>
       </c>
       <c r="AD59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AE59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4716,85 +4856,88 @@
         <v>2000</v>
       </c>
       <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2100</v>
       </c>
       <c r="K60" s="3">
         <v>2100</v>
       </c>
       <c r="L60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1100</v>
       </c>
       <c r="Q60" s="3">
         <v>1100</v>
       </c>
       <c r="R60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S60" s="3">
         <v>1200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2300</v>
       </c>
       <c r="T60" s="3">
         <v>2300</v>
       </c>
       <c r="U60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2100</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>2200</v>
       </c>
       <c r="AA60" s="3">
         <v>2200</v>
       </c>
       <c r="AB60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="AC60" s="3">
         <v>2000</v>
       </c>
       <c r="AD60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AE60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4891,19 +5037,19 @@
         <v>1000</v>
       </c>
       <c r="F62" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G62" s="3">
         <v>800</v>
       </c>
       <c r="H62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I62" s="3">
         <v>900</v>
       </c>
       <c r="J62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K62" s="3">
         <v>1000</v>
@@ -4915,7 +5061,7 @@
         <v>1000</v>
       </c>
       <c r="N62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="O62" s="3">
         <v>1100</v>
@@ -4924,7 +5070,7 @@
         <v>1100</v>
       </c>
       <c r="Q62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="R62" s="3">
         <v>1200</v>
@@ -4936,10 +5082,10 @@
         <v>1200</v>
       </c>
       <c r="U62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V62" s="3">
         <v>1100</v>
-      </c>
-      <c r="V62" s="3">
-        <v>1200</v>
       </c>
       <c r="W62" s="3">
         <v>1200</v>
@@ -4948,13 +5094,13 @@
         <v>1200</v>
       </c>
       <c r="Y62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z62" s="3">
         <v>1300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1400</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>1300</v>
       </c>
       <c r="AB62" s="3">
         <v>1300</v>
@@ -4962,11 +5108,14 @@
       <c r="AC62" s="3">
         <v>1300</v>
       </c>
-      <c r="AD62" s="3" t="s">
+      <c r="AD62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AE62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5235,82 +5393,85 @@
         <v>3000</v>
       </c>
       <c r="F66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3600</v>
       </c>
       <c r="I66" s="3">
         <v>3600</v>
       </c>
       <c r="J66" s="3">
-        <v>3100</v>
+        <v>3600</v>
       </c>
       <c r="K66" s="3">
         <v>3100</v>
       </c>
       <c r="L66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
-      </c>
-      <c r="S66" s="3">
-        <v>3500</v>
       </c>
       <c r="T66" s="3">
         <v>3500</v>
       </c>
       <c r="U66" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="V66" s="3">
         <v>3300</v>
       </c>
       <c r="W66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="X66" s="3">
         <v>3500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3500</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>3300</v>
       </c>
       <c r="AC66" s="3">
         <v>3300</v>
       </c>
       <c r="AD66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="AE66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>70000</v>
+        <v>-69900</v>
       </c>
       <c r="E72" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-69700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-70400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-70300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-70400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-70300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-70000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-69800</v>
       </c>
       <c r="L72" s="3">
         <v>-69800</v>
       </c>
       <c r="M72" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="N72" s="3">
         <v>-69600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-67500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-67400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-67500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-67000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-66900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-67500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-67300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-67100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-56800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-56400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-56300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-55800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-55900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-55800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-55600</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>-55400</v>
       </c>
       <c r="AD72" s="3">
         <v>-55400</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-55400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,22 +6212,25 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2900</v>
       </c>
       <c r="H76" s="3">
         <v>2900</v>
@@ -6053,70 +6239,73 @@
         <v>2900</v>
       </c>
       <c r="J76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K76" s="3">
         <v>3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2600</v>
-      </c>
-      <c r="S76" s="3">
-        <v>1800</v>
       </c>
       <c r="T76" s="3">
         <v>1800</v>
       </c>
       <c r="U76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V76" s="3">
         <v>1900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>13400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,170 +6390,176 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-10500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
       <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
-        <v>100</v>
-      </c>
       <c r="Z81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AA81" s="3">
         <v>-200</v>
@@ -6373,13 +6568,16 @@
         <v>-200</v>
       </c>
       <c r="AC81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AD81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6467,7 +6666,7 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
@@ -6491,13 +6690,16 @@
         <v>200</v>
       </c>
       <c r="AC83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>400</v>
       </c>
       <c r="M89" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N89" s="3">
         <v>300</v>
       </c>
       <c r="O89" s="3">
+        <v>300</v>
+      </c>
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
-        <v>-100</v>
-      </c>
       <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
-        <v>100</v>
-      </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB89" s="3">
         <v>300</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
       <c r="AC89" s="3">
         <v>0</v>
       </c>
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7076,8 +7297,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -7088,8 +7309,8 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -7124,14 +7345,17 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>8</v>
+      <c r="AC91" s="3">
+        <v>0</v>
       </c>
       <c r="AD91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,20 +7529,23 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -7383,13 +7613,16 @@
         <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>300</v>
       </c>
-      <c r="AD94" s="3" t="s">
+      <c r="AE94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,19 +8007,22 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3">
-        <v>-100</v>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -7815,16 +8061,16 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>-100</v>
@@ -7839,7 +8085,7 @@
         <v>-100</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7862,31 +8111,31 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-100</v>
-      </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -7930,96 +8179,102 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>8</v>
+      <c r="AC101" s="3">
+        <v>0</v>
       </c>
       <c r="AD101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>400</v>
       </c>
       <c r="M102" s="3">
+        <v>400</v>
+      </c>
+      <c r="N102" s="3">
         <v>300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>400</v>
       </c>
       <c r="O102" s="3">
         <v>400</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
         <v>-100</v>
       </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PAYD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>PAYD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,88 +800,91 @@
         <v>4100</v>
       </c>
       <c r="E8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F8" s="3">
         <v>3800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2800</v>
-      </c>
-      <c r="S8" s="3">
-        <v>2700</v>
       </c>
       <c r="T8" s="3">
         <v>2700</v>
       </c>
       <c r="U8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V8" s="3">
         <v>2300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2100</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>1900</v>
       </c>
       <c r="AB8" s="3">
         <v>1900</v>
       </c>
       <c r="AC8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AD8" s="3">
         <v>1600</v>
       </c>
-      <c r="AD8" s="3">
-        <v>100</v>
-      </c>
       <c r="AE8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -885,88 +892,91 @@
         <v>3200</v>
       </c>
       <c r="E9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F9" s="3">
         <v>3000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2800</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2500</v>
       </c>
       <c r="P9" s="3">
         <v>2500</v>
       </c>
       <c r="Q9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R9" s="3">
         <v>2000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2200</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2000</v>
       </c>
       <c r="T9" s="3">
         <v>2000</v>
       </c>
       <c r="U9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V9" s="3">
         <v>1700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1800</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>1500</v>
       </c>
       <c r="AB9" s="3">
         <v>1500</v>
       </c>
       <c r="AC9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD9" s="3">
         <v>1200</v>
       </c>
-      <c r="AD9" s="3">
-        <v>0</v>
-      </c>
       <c r="AE9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -974,61 +984,61 @@
         <v>900</v>
       </c>
       <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
-      </c>
-      <c r="L10" s="3">
-        <v>900</v>
       </c>
       <c r="M10" s="3">
         <v>900</v>
       </c>
       <c r="N10" s="3">
+        <v>900</v>
+      </c>
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>900</v>
-      </c>
-      <c r="P10" s="3">
-        <v>700</v>
       </c>
       <c r="Q10" s="3">
         <v>700</v>
       </c>
       <c r="R10" s="3">
+        <v>700</v>
+      </c>
+      <c r="S10" s="3">
         <v>600</v>
-      </c>
-      <c r="S10" s="3">
-        <v>700</v>
       </c>
       <c r="T10" s="3">
         <v>700</v>
       </c>
       <c r="U10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="V10" s="3">
         <v>600</v>
       </c>
       <c r="W10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X10" s="3">
         <v>500</v>
@@ -1037,10 +1047,10 @@
         <v>500</v>
       </c>
       <c r="Z10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA10" s="3">
         <v>300</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>400</v>
       </c>
       <c r="AB10" s="3">
         <v>400</v>
@@ -1049,13 +1059,16 @@
         <v>400</v>
       </c>
       <c r="AD10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AE10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1303,8 +1323,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1312,11 +1332,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1324,11 +1344,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>10400</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1336,8 +1356,8 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1425,26 +1448,29 @@
       <c r="Y15" s="3">
         <v>100</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="Z15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA15" s="3">
-        <v>100</v>
-      </c>
       <c r="AB15" s="3">
         <v>100</v>
       </c>
       <c r="AC15" s="3">
         <v>100</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>8</v>
+      <c r="AD15" s="3">
+        <v>100</v>
       </c>
       <c r="AE15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,117 +1499,121 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>4200</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
         <v>4200</v>
       </c>
       <c r="F17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>3000</v>
       </c>
       <c r="S17" s="3">
         <v>3000</v>
       </c>
       <c r="T17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2700</v>
-      </c>
-      <c r="X17" s="3">
-        <v>2500</v>
       </c>
       <c r="Y17" s="3">
         <v>2500</v>
       </c>
       <c r="Z17" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="AA17" s="3">
         <v>2200</v>
       </c>
       <c r="AB17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AC17" s="3">
         <v>2100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1800</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>200</v>
       </c>
       <c r="AE17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-100</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1592,67 +1622,70 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-10400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-300</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>-200</v>
       </c>
       <c r="AC18" s="3">
         <v>-200</v>
       </c>
       <c r="AD18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AE18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,22 +1717,23 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1732,14 +1766,14 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1747,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
@@ -1768,34 +1802,37 @@
         <v>0</v>
       </c>
       <c r="AD20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>100</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
@@ -1803,67 +1840,70 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
         <v>700</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
       <c r="U21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-10300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
-        <v>100</v>
-      </c>
       <c r="AA21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD21" s="3">
         <v>0</v>
       </c>
       <c r="AE21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1921,14 +1961,14 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1945,35 +1985,38 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-      <c r="AD22" s="3" t="s">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AE22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>100</v>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
@@ -1981,52 +2024,52 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-10400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="AB23" s="3">
         <v>-200</v>
@@ -2035,13 +2078,16 @@
         <v>-200</v>
       </c>
       <c r="AD23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AE23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2052,23 +2098,23 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
-        <v>100</v>
-      </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -2076,10 +2122,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -2100,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -2112,11 +2158,11 @@
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,82 +2267,85 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>100</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-10400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>6300</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-200</v>
       </c>
       <c r="AB26" s="3">
         <v>-200</v>
@@ -2302,87 +2354,90 @@
         <v>-200</v>
       </c>
       <c r="AD26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AE26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>100</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-10500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>6400</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-200</v>
       </c>
       <c r="AB27" s="3">
         <v>-200</v>
@@ -2391,13 +2446,16 @@
         <v>-200</v>
       </c>
       <c r="AD27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AE27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2538,8 +2599,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2556,11 +2617,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-6300</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,22 +2819,25 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-100</v>
-      </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2800,14 +2870,14 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2815,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
@@ -2836,87 +2906,90 @@
         <v>0</v>
       </c>
       <c r="AD32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>100</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-10500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
-        <v>100</v>
-      </c>
       <c r="AA33" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AB33" s="3">
         <v>-200</v>
@@ -2925,13 +2998,16 @@
         <v>-200</v>
       </c>
       <c r="AD33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AE33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,82 +3095,85 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>100</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-10500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
-        <v>100</v>
-      </c>
       <c r="AA35" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AB35" s="3">
         <v>-200</v>
@@ -3103,107 +3182,113 @@
         <v>-200</v>
       </c>
       <c r="AD35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AE35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,52 +3354,53 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1800</v>
       </c>
       <c r="F41" s="3">
         <v>1800</v>
       </c>
       <c r="G41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2500</v>
       </c>
       <c r="L41" s="3">
         <v>2500</v>
       </c>
       <c r="M41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>500</v>
       </c>
       <c r="R41" s="3">
         <v>500</v>
@@ -3322,7 +3409,7 @@
         <v>500</v>
       </c>
       <c r="T41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U41" s="3">
         <v>600</v>
@@ -3337,28 +3424,31 @@
         <v>600</v>
       </c>
       <c r="Y41" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z41" s="3">
         <v>400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>500</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>600</v>
       </c>
       <c r="AB41" s="3">
         <v>600</v>
       </c>
       <c r="AC41" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AD41" s="3">
         <v>300</v>
       </c>
       <c r="AE41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,13 +3548,13 @@
         <v>2100</v>
       </c>
       <c r="E43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
@@ -3470,7 +3563,7 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -3494,7 +3587,7 @@
         <v>200</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
@@ -3515,7 +3608,7 @@
         <v>100</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
@@ -3527,16 +3620,19 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3636,11 +3735,11 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
@@ -3648,23 +3747,23 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
@@ -3690,13 +3789,13 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>300</v>
       </c>
       <c r="Z45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA45" s="3">
         <v>200</v>
@@ -3711,10 +3810,13 @@
         <v>200</v>
       </c>
       <c r="AE45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3722,43 +3824,43 @@
         <v>4000</v>
       </c>
       <c r="E46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F46" s="3">
         <v>3800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>700</v>
       </c>
       <c r="R46" s="3">
         <v>700</v>
@@ -3767,43 +3869,46 @@
         <v>700</v>
       </c>
       <c r="T46" s="3">
+        <v>700</v>
+      </c>
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>700</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>800</v>
       </c>
       <c r="AA46" s="3">
         <v>800</v>
       </c>
       <c r="AB46" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC46" s="3">
         <v>900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3906,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3927,7 +4035,7 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -3951,7 +4059,7 @@
         <v>200</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
@@ -3978,42 +4086,45 @@
         <v>100</v>
       </c>
       <c r="AE48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E49" s="3">
         <v>2600</v>
       </c>
       <c r="F49" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G49" s="3">
         <v>2700</v>
       </c>
       <c r="H49" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I49" s="3">
         <v>3000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3500</v>
-      </c>
-      <c r="M49" s="3">
-        <v>3600</v>
       </c>
       <c r="N49" s="3">
         <v>3600</v>
@@ -4028,49 +4139,52 @@
         <v>3600</v>
       </c>
       <c r="R49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S49" s="3">
         <v>4000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4200</v>
-      </c>
-      <c r="U49" s="3">
-        <v>4300</v>
       </c>
       <c r="V49" s="3">
         <v>4300</v>
       </c>
       <c r="W49" s="3">
-        <v>15100</v>
+        <v>4300</v>
       </c>
       <c r="X49" s="3">
         <v>15100</v>
       </c>
       <c r="Y49" s="3">
+        <v>15100</v>
+      </c>
+      <c r="Z49" s="3">
         <v>15600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>16200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>16500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>15500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>15700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>15900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6600</v>
-      </c>
-      <c r="E54" s="3">
-        <v>6400</v>
       </c>
       <c r="F54" s="3">
         <v>6400</v>
       </c>
       <c r="G54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H54" s="3">
         <v>6200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>6500</v>
       </c>
       <c r="J54" s="3">
         <v>6500</v>
       </c>
       <c r="K54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="L54" s="3">
         <v>6200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4500</v>
-      </c>
-      <c r="R54" s="3">
-        <v>5000</v>
       </c>
       <c r="S54" s="3">
         <v>5000</v>
       </c>
       <c r="T54" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="U54" s="3">
         <v>5300</v>
       </c>
       <c r="V54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="W54" s="3">
         <v>5200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>16000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>16100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>16400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>17100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>17400</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>16500</v>
       </c>
       <c r="AC54" s="3">
         <v>16500</v>
       </c>
       <c r="AD54" s="3">
+        <v>16500</v>
+      </c>
+      <c r="AE54" s="3">
         <v>16600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,13 +4710,14 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="3">
         <v>1600</v>
@@ -4595,22 +4726,22 @@
         <v>1600</v>
       </c>
       <c r="G57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1500</v>
       </c>
       <c r="M57" s="3">
         <v>1500</v>
@@ -4619,58 +4750,61 @@
         <v>1500</v>
       </c>
       <c r="O57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>900</v>
       </c>
       <c r="R57" s="3">
         <v>900</v>
       </c>
       <c r="S57" s="3">
+        <v>900</v>
+      </c>
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>800</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>600</v>
       </c>
       <c r="Z57" s="3">
         <v>600</v>
       </c>
       <c r="AA57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AB57" s="3">
         <v>700</v>
       </c>
       <c r="AC57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AD57" s="3">
         <v>600</v>
       </c>
       <c r="AE57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4732,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>100</v>
@@ -4741,87 +4875,90 @@
         <v>100</v>
       </c>
       <c r="Z58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA58" s="3">
         <v>200</v>
       </c>
       <c r="AB58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD58" s="3">
         <v>200</v>
       </c>
       <c r="AE58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
       </c>
       <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1400</v>
       </c>
       <c r="V59" s="3">
         <v>1400</v>
       </c>
       <c r="W59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="X59" s="3">
         <v>1300</v>
@@ -4836,108 +4973,114 @@
         <v>1300</v>
       </c>
       <c r="AB59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC59" s="3">
         <v>1400</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>1200</v>
       </c>
       <c r="AD59" s="3">
         <v>1200</v>
       </c>
       <c r="AE59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AF59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E60" s="3">
         <v>2000</v>
       </c>
       <c r="F60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2100</v>
       </c>
       <c r="L60" s="3">
         <v>2100</v>
       </c>
       <c r="M60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1100</v>
       </c>
       <c r="R60" s="3">
         <v>1100</v>
       </c>
       <c r="S60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T60" s="3">
         <v>1200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2300</v>
       </c>
       <c r="U60" s="3">
         <v>2300</v>
       </c>
       <c r="V60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W60" s="3">
         <v>2200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2100</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>2200</v>
       </c>
       <c r="AB60" s="3">
         <v>2200</v>
       </c>
       <c r="AC60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="AD60" s="3">
         <v>2000</v>
       </c>
       <c r="AE60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AF60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5040,19 +5186,19 @@
         <v>1000</v>
       </c>
       <c r="G62" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H62" s="3">
         <v>800</v>
       </c>
       <c r="I62" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J62" s="3">
         <v>900</v>
       </c>
       <c r="K62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L62" s="3">
         <v>1000</v>
@@ -5064,7 +5210,7 @@
         <v>1000</v>
       </c>
       <c r="O62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="P62" s="3">
         <v>1100</v>
@@ -5073,7 +5219,7 @@
         <v>1100</v>
       </c>
       <c r="R62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="S62" s="3">
         <v>1200</v>
@@ -5085,10 +5231,10 @@
         <v>1200</v>
       </c>
       <c r="V62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W62" s="3">
         <v>1100</v>
-      </c>
-      <c r="W62" s="3">
-        <v>1200</v>
       </c>
       <c r="X62" s="3">
         <v>1200</v>
@@ -5097,13 +5243,13 @@
         <v>1200</v>
       </c>
       <c r="Z62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA62" s="3">
         <v>1300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1400</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>1300</v>
       </c>
       <c r="AC62" s="3">
         <v>1300</v>
@@ -5111,11 +5257,14 @@
       <c r="AD62" s="3">
         <v>1300</v>
       </c>
-      <c r="AE62" s="3" t="s">
+      <c r="AE62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AF62" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,13 +5536,16 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="E66" s="3">
         <v>3000</v>
@@ -5396,82 +5554,85 @@
         <v>3000</v>
       </c>
       <c r="G66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3600</v>
       </c>
       <c r="J66" s="3">
         <v>3600</v>
       </c>
       <c r="K66" s="3">
-        <v>3100</v>
+        <v>3600</v>
       </c>
       <c r="L66" s="3">
         <v>3100</v>
       </c>
       <c r="M66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>3500</v>
       </c>
       <c r="U66" s="3">
         <v>3500</v>
       </c>
       <c r="V66" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="W66" s="3">
         <v>3300</v>
       </c>
       <c r="X66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Y66" s="3">
         <v>3500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3500</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>3300</v>
       </c>
       <c r="AD66" s="3">
         <v>3300</v>
       </c>
       <c r="AE66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="AF66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-70000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-70400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-70300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-70400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-70300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-70000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-69800</v>
       </c>
       <c r="M72" s="3">
         <v>-69800</v>
       </c>
       <c r="N72" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="O72" s="3">
         <v>-69600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-67500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-67400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-67500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-67000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-66900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-67500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-67300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-67100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-56800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-56400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-56300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-55800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-55900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-55800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-55600</v>
-      </c>
-      <c r="AD72" s="3">
-        <v>-55400</v>
       </c>
       <c r="AE72" s="3">
         <v>-55400</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3">
+        <v>-55400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,25 +6398,28 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>2900</v>
       </c>
       <c r="I76" s="3">
         <v>2900</v>
@@ -6242,70 +6428,73 @@
         <v>2900</v>
       </c>
       <c r="K76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L76" s="3">
         <v>3100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2600</v>
-      </c>
-      <c r="T76" s="3">
-        <v>1800</v>
       </c>
       <c r="U76" s="3">
         <v>1800</v>
       </c>
       <c r="V76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W76" s="3">
         <v>1900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>13200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>13400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,176 +6582,182 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>100</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-10500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
-        <v>100</v>
-      </c>
       <c r="AA81" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="AB81" s="3">
         <v>-200</v>
@@ -6571,13 +6766,16 @@
         <v>-200</v>
       </c>
       <c r="AD81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AE81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6669,7 +6868,7 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
@@ -6693,13 +6892,16 @@
         <v>200</v>
       </c>
       <c r="AD83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>400</v>
       </c>
       <c r="N89" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O89" s="3">
         <v>300</v>
       </c>
       <c r="P89" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
-        <v>-100</v>
-      </c>
       <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>100</v>
-      </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC89" s="3">
         <v>300</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
       <c r="AD89" s="3">
         <v>0</v>
       </c>
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7300,8 +7521,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -7312,8 +7533,8 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -7348,14 +7569,17 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-      <c r="AD91" s="3" t="s">
-        <v>8</v>
+      <c r="AD91" s="3">
+        <v>0</v>
       </c>
       <c r="AE91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7543,12 +7773,12 @@
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -7616,13 +7846,16 @@
         <v>0</v>
       </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>300</v>
       </c>
-      <c r="AE94" s="3" t="s">
+      <c r="AF94" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,22 +8253,25 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
-        <v>-100</v>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -8064,16 +8310,16 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>-100</v>
@@ -8088,7 +8334,7 @@
         <v>-100</v>
       </c>
       <c r="AB100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC100" s="3">
         <v>0</v>
@@ -8099,13 +8345,16 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -8114,31 +8363,31 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-100</v>
-      </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -8182,99 +8431,105 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-      <c r="AD101" s="3" t="s">
-        <v>8</v>
+      <c r="AD101" s="3">
+        <v>0</v>
       </c>
       <c r="AE101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>400</v>
       </c>
       <c r="N102" s="3">
+        <v>400</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
-      </c>
-      <c r="O102" s="3">
-        <v>400</v>
       </c>
       <c r="P102" s="3">
         <v>400</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
       <c r="Y102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
         <v>-100</v>
       </c>
       <c r="AA102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>300</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
